--- a/DDAf_2025_Tableau_annexe_Tab36.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab36.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA72230B-BC00-4076-ACDC-EE9834FB80E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81807D4F-1E2C-4336-8803-B9A5E8C63753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{BA6B9E04-F932-4E6A-A4AD-58B833AF5338}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{D7243962-2224-410D-B4FA-1D6D3D30B8B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab36" sheetId="1" r:id="rId1"/>
@@ -591,7 +591,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: International Labour Organization - ILOSTAT (retrieved 09/09/2025).</t>
@@ -1500,7 +1500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A67FAF0-B091-4BE4-BF27-A6B7D6622771}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F0E8E5-F270-45A8-AFB8-5F5B77AB560F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1508,14 +1508,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="29" width="15.5703125" style="80" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="29" width="15.54296875" style="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1547,7 +1547,7 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
     </row>
-    <row r="2" spans="1:29" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>67.532617000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>31.359611999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>34</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>35.013438999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>65.843038000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>38</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>87.020420000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>43</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>49.521836</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>45</v>
       </c>
@@ -2267,88 +2267,88 @@
         <v>46</v>
       </c>
       <c r="C10" s="21">
-        <v>29.059584000000001</v>
+        <v>30.319889</v>
       </c>
       <c r="D10" s="19">
-        <v>51.502609999999997</v>
+        <v>51.304201999999997</v>
       </c>
       <c r="E10" s="20">
-        <v>19.437806999999999</v>
+        <v>18.375910000000001</v>
       </c>
       <c r="F10" s="21">
-        <v>35.050305000000002</v>
+        <v>36.812696000000003</v>
       </c>
       <c r="G10" s="19">
-        <v>48.836049000000003</v>
+        <v>48.142296999999999</v>
       </c>
       <c r="H10" s="20">
-        <v>16.113645999999999</v>
+        <v>15.045007</v>
       </c>
       <c r="I10" s="21">
-        <v>24.270682000000001</v>
+        <v>25.026454999999999</v>
       </c>
       <c r="J10" s="19">
-        <v>53.634217999999997</v>
+        <v>53.882033</v>
       </c>
       <c r="K10" s="20">
-        <v>22.095101</v>
+        <v>21.091512000000002</v>
       </c>
       <c r="L10" s="21">
-        <v>29.848061999999999</v>
+        <v>31.360399999999998</v>
       </c>
       <c r="M10" s="19">
-        <v>52.80585</v>
+        <v>52.610894999999999</v>
       </c>
       <c r="N10" s="20">
-        <v>17.346088000000002</v>
+        <v>16.028704999999999</v>
       </c>
       <c r="O10" s="21">
-        <v>35.155464000000002</v>
+        <v>37.063599000000004</v>
       </c>
       <c r="P10" s="19">
-        <v>50.127889000000003</v>
+        <v>49.439818000000002</v>
       </c>
       <c r="Q10" s="20">
-        <v>14.716647</v>
+        <v>13.496582999999999</v>
       </c>
       <c r="R10" s="21">
-        <v>25.360879000000001</v>
+        <v>26.449791999999999</v>
       </c>
       <c r="S10" s="19">
-        <v>55.069955999999998</v>
+        <v>55.341279999999998</v>
       </c>
       <c r="T10" s="20">
-        <v>19.569165000000002</v>
+        <v>18.208926999999999</v>
       </c>
       <c r="U10" s="21">
-        <v>24.832207</v>
+        <v>25.146163999999999</v>
       </c>
       <c r="V10" s="19">
-        <v>44.515365000000003</v>
+        <v>44.806994000000003</v>
       </c>
       <c r="W10" s="20">
-        <v>30.652428</v>
+        <v>30.046842999999999</v>
       </c>
       <c r="X10" s="21">
-        <v>34.352012999999999</v>
+        <v>35.300842000000003</v>
       </c>
       <c r="Y10" s="19">
-        <v>40.257230999999997</v>
+        <v>40.323942000000002</v>
       </c>
       <c r="Z10" s="20">
-        <v>25.390756</v>
+        <v>24.375216000000002</v>
       </c>
       <c r="AA10" s="21">
-        <v>19.244364999999998</v>
+        <v>18.875083</v>
       </c>
       <c r="AB10" s="19">
-        <v>47.014752000000001</v>
+        <v>47.575521999999999</v>
       </c>
       <c r="AC10" s="20">
-        <v>33.740882999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+        <v>33.549394999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>47</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>48.568475999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>49</v>
       </c>
@@ -2526,94 +2526,94 @@
         <v>8.7576210000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="28">
-        <v>17.478318999999999</v>
+        <v>17.618352999999999</v>
       </c>
       <c r="D13" s="29">
-        <v>42.957042000000001</v>
+        <v>42.934997000000003</v>
       </c>
       <c r="E13" s="30">
-        <v>39.564639</v>
+        <v>39.446649999999998</v>
       </c>
       <c r="F13" s="28">
-        <v>18.686616999999998</v>
+        <v>18.882438</v>
       </c>
       <c r="G13" s="29">
-        <v>40.896414999999998</v>
+        <v>40.819332000000003</v>
       </c>
       <c r="H13" s="30">
-        <v>40.416967</v>
+        <v>40.298229999999997</v>
       </c>
       <c r="I13" s="28">
-        <v>16.466750000000001</v>
+        <v>16.550723999999999</v>
       </c>
       <c r="J13" s="29">
-        <v>45.034568</v>
+        <v>45.062103</v>
       </c>
       <c r="K13" s="30">
-        <v>38.498683</v>
+        <v>38.387172999999997</v>
       </c>
       <c r="L13" s="28">
-        <v>22.323205000000002</v>
+        <v>22.491243000000001</v>
       </c>
       <c r="M13" s="29">
-        <v>49.632494000000001</v>
+        <v>49.610833</v>
       </c>
       <c r="N13" s="30">
-        <v>28.044301000000001</v>
+        <v>27.897925000000001</v>
       </c>
       <c r="O13" s="28">
-        <v>25.415103999999999</v>
+        <v>25.627119</v>
       </c>
       <c r="P13" s="29">
-        <v>47.356974999999998</v>
+        <v>47.280523000000002</v>
       </c>
       <c r="Q13" s="30">
-        <v>27.227922</v>
+        <v>27.092358999999998</v>
       </c>
       <c r="R13" s="28">
-        <v>20.032136000000001</v>
+        <v>20.153126</v>
       </c>
       <c r="S13" s="29">
-        <v>50.815607</v>
+        <v>50.845753999999999</v>
       </c>
       <c r="T13" s="30">
-        <v>29.152256999999999</v>
+        <v>29.00112</v>
       </c>
       <c r="U13" s="28">
-        <v>13.169460000000001</v>
+        <v>13.204344000000001</v>
       </c>
       <c r="V13" s="29">
-        <v>37.687885000000001</v>
+        <v>37.720287999999996</v>
       </c>
       <c r="W13" s="30">
-        <v>49.142654999999998</v>
+        <v>49.075367999999997</v>
       </c>
       <c r="X13" s="28">
-        <v>13.591365</v>
+        <v>13.69679</v>
       </c>
       <c r="Y13" s="29">
-        <v>36.385303</v>
+        <v>36.392716</v>
       </c>
       <c r="Z13" s="30">
-        <v>50.023332000000003</v>
+        <v>49.910494</v>
       </c>
       <c r="AA13" s="28">
-        <v>13.130048</v>
+        <v>13.089017</v>
       </c>
       <c r="AB13" s="29">
-        <v>39.385736000000001</v>
+        <v>39.448044000000003</v>
       </c>
       <c r="AC13" s="30">
-        <v>47.484216000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+        <v>47.462938999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>52</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>54</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>56</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>58</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>82.708178000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>60</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>62</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>64</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>66</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>68</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>75.642759999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
         <v>70</v>
@@ -3501,7 +3501,7 @@
         <v>79.175469000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>71</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>79.899973000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>73</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>80.507320000000007</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>75</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>77</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>75.683368000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>79</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>26.584894999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>81</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>42.634624000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>83</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>40.783892999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>85</v>
       </c>
@@ -4132,88 +4132,88 @@
         <v>86</v>
       </c>
       <c r="C31" s="21">
-        <v>8.5525680000000008</v>
+        <v>10.051716000000001</v>
       </c>
       <c r="D31" s="19">
-        <v>49.913710999999999</v>
+        <v>51.934334999999997</v>
       </c>
       <c r="E31" s="20">
-        <v>41.533721</v>
+        <v>38.013950000000001</v>
       </c>
       <c r="F31" s="21">
-        <v>8.1966269999999994</v>
+        <v>9.9845039999999994</v>
       </c>
       <c r="G31" s="19">
-        <v>48.091428000000001</v>
+        <v>51.150077000000003</v>
       </c>
       <c r="H31" s="20">
-        <v>43.711945</v>
+        <v>38.865419000000003</v>
       </c>
       <c r="I31" s="21">
-        <v>8.8731939999999998</v>
+        <v>10.110486</v>
       </c>
       <c r="J31" s="19">
-        <v>51.555233000000001</v>
+        <v>52.620189000000003</v>
       </c>
       <c r="K31" s="20">
-        <v>39.571573000000001</v>
+        <v>37.269325000000002</v>
       </c>
       <c r="L31" s="21">
-        <v>11.400669000000001</v>
+        <v>12.895194</v>
       </c>
       <c r="M31" s="19">
-        <v>64.815488999999999</v>
+        <v>63.330604000000001</v>
       </c>
       <c r="N31" s="20">
-        <v>23.783842</v>
+        <v>23.774201999999999</v>
       </c>
       <c r="O31" s="21">
-        <v>11.820544999999999</v>
+        <v>13.893802000000001</v>
       </c>
       <c r="P31" s="19">
-        <v>66.339830000000006</v>
+        <v>65.645841000000004</v>
       </c>
       <c r="Q31" s="20">
-        <v>21.839624000000001</v>
+        <v>20.460356999999998</v>
       </c>
       <c r="R31" s="21">
-        <v>11.063767</v>
+        <v>12.101355999999999</v>
       </c>
       <c r="S31" s="19">
-        <v>63.592382000000001</v>
+        <v>61.490118000000002</v>
       </c>
       <c r="T31" s="20">
-        <v>25.343851000000001</v>
+        <v>26.408525999999998</v>
       </c>
       <c r="U31" s="21">
-        <v>4.5193380000000003</v>
+        <v>5.5765950000000002</v>
       </c>
       <c r="V31" s="19">
-        <v>28.811101000000001</v>
+        <v>33.427646000000003</v>
       </c>
       <c r="W31" s="20">
-        <v>66.669561000000002</v>
+        <v>60.995759999999997</v>
       </c>
       <c r="X31" s="21">
-        <v>3.7568440000000001</v>
+        <v>4.5890069999999996</v>
       </c>
       <c r="Y31" s="19">
-        <v>25.7347</v>
+        <v>30.337523000000001</v>
       </c>
       <c r="Z31" s="20">
-        <v>70.508455999999995</v>
+        <v>65.073469000000003</v>
       </c>
       <c r="AA31" s="21">
-        <v>5.327636</v>
+        <v>6.5774299999999997</v>
       </c>
       <c r="AB31" s="19">
-        <v>32.072403999999999</v>
+        <v>36.559221000000001</v>
       </c>
       <c r="AC31" s="20">
-        <v>62.599960000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+        <v>56.863348999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>87</v>
       </c>
@@ -4221,88 +4221,88 @@
         <v>88</v>
       </c>
       <c r="C32" s="21">
-        <v>14.416688000000001</v>
+        <v>11.907185999999999</v>
       </c>
       <c r="D32" s="19">
-        <v>54.561407000000003</v>
+        <v>54.855252</v>
       </c>
       <c r="E32" s="20">
-        <v>31.021905</v>
+        <v>33.237561999999997</v>
       </c>
       <c r="F32" s="21">
-        <v>13.845609</v>
+        <v>9.9328810000000001</v>
       </c>
       <c r="G32" s="19">
-        <v>52.285961999999998</v>
+        <v>52.864092999999997</v>
       </c>
       <c r="H32" s="20">
-        <v>33.868428999999999</v>
+        <v>37.203026000000001</v>
       </c>
       <c r="I32" s="21">
-        <v>15.002174</v>
+        <v>14.146231999999999</v>
       </c>
       <c r="J32" s="19">
-        <v>56.906295999999998</v>
+        <v>57.110382000000001</v>
       </c>
       <c r="K32" s="20">
-        <v>28.091531</v>
+        <v>28.743385</v>
       </c>
       <c r="L32" s="21">
-        <v>15.314360000000001</v>
+        <v>12.557796</v>
       </c>
       <c r="M32" s="19">
-        <v>54.249704999999999</v>
+        <v>55.825211000000003</v>
       </c>
       <c r="N32" s="20">
-        <v>30.435935000000001</v>
+        <v>31.616993000000001</v>
       </c>
       <c r="O32" s="21">
-        <v>14.243931999999999</v>
+        <v>10.245293</v>
       </c>
       <c r="P32" s="19">
-        <v>53.033875000000002</v>
+        <v>54.390281999999999</v>
       </c>
       <c r="Q32" s="20">
-        <v>32.722192999999997</v>
+        <v>35.364424999999997</v>
       </c>
       <c r="R32" s="21">
-        <v>16.671150000000001</v>
+        <v>15.630801999999999</v>
       </c>
       <c r="S32" s="19">
-        <v>55.785679999999999</v>
+        <v>57.734780000000001</v>
       </c>
       <c r="T32" s="20">
-        <v>27.543171000000001</v>
+        <v>26.634418</v>
       </c>
       <c r="U32" s="21">
-        <v>10.335105</v>
+        <v>8.3352029999999999</v>
       </c>
       <c r="V32" s="19">
-        <v>55.980913000000001</v>
+        <v>49.528830999999997</v>
       </c>
       <c r="W32" s="20">
-        <v>33.683982</v>
+        <v>42.135966000000003</v>
       </c>
       <c r="X32" s="21">
-        <v>10.203268</v>
+        <v>6.807512</v>
       </c>
       <c r="Y32" s="19">
-        <v>45.356715999999999</v>
+        <v>37.636932999999999</v>
       </c>
       <c r="Z32" s="20">
-        <v>44.440016</v>
+        <v>55.555556000000003</v>
       </c>
       <c r="AA32" s="21">
-        <v>10.396186999999999</v>
+        <v>9.0437239999999992</v>
       </c>
       <c r="AB32" s="19">
-        <v>60.008937000000003</v>
+        <v>54.954388000000002</v>
       </c>
       <c r="AC32" s="20">
-        <v>29.594875999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+        <v>36.001887000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>89</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>91</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>93</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>79.017543000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>95</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>78.801598999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>97</v>
       </c>
@@ -4747,94 +4747,94 @@
         <v>58.931930999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="26"/>
       <c r="B38" s="27" t="s">
         <v>99</v>
       </c>
       <c r="C38" s="28">
-        <v>11.736029</v>
+        <v>11.644178999999999</v>
       </c>
       <c r="D38" s="29">
-        <v>34.342618999999999</v>
+        <v>34.553024999999998</v>
       </c>
       <c r="E38" s="30">
-        <v>53.921351999999999</v>
+        <v>53.802796000000001</v>
       </c>
       <c r="F38" s="28">
-        <v>11.858867999999999</v>
+        <v>11.665699999999999</v>
       </c>
       <c r="G38" s="29">
-        <v>32.145744000000001</v>
+        <v>32.476360999999997</v>
       </c>
       <c r="H38" s="30">
-        <v>55.995387999999998</v>
+        <v>55.857939000000002</v>
       </c>
       <c r="I38" s="28">
-        <v>11.671614999999999</v>
+        <v>11.706283000000001</v>
       </c>
       <c r="J38" s="29">
-        <v>36.132179000000001</v>
+        <v>36.247546999999997</v>
       </c>
       <c r="K38" s="30">
-        <v>52.196205999999997</v>
+        <v>52.046169999999996</v>
       </c>
       <c r="L38" s="28">
-        <v>17.114353000000001</v>
+        <v>16.999621999999999</v>
       </c>
       <c r="M38" s="29">
-        <v>42.997728000000002</v>
+        <v>43.005966000000001</v>
       </c>
       <c r="N38" s="30">
-        <v>39.887918999999997</v>
+        <v>39.994410999999999</v>
       </c>
       <c r="O38" s="28">
-        <v>18.594747999999999</v>
+        <v>18.419713999999999</v>
       </c>
       <c r="P38" s="29">
-        <v>43.338765000000002</v>
+        <v>43.398985000000003</v>
       </c>
       <c r="Q38" s="30">
-        <v>38.066487000000002</v>
+        <v>38.181300999999998</v>
       </c>
       <c r="R38" s="28">
-        <v>16.565885999999999</v>
+        <v>16.565635</v>
       </c>
       <c r="S38" s="29">
-        <v>43.302030999999999</v>
+        <v>43.288106999999997</v>
       </c>
       <c r="T38" s="30">
-        <v>40.132083000000002</v>
+        <v>40.146258000000003</v>
       </c>
       <c r="U38" s="28">
-        <v>8.1833410000000004</v>
+        <v>8.0976459999999992</v>
       </c>
       <c r="V38" s="29">
-        <v>30.151401</v>
+        <v>29.984532999999999</v>
       </c>
       <c r="W38" s="30">
-        <v>61.665258000000001</v>
+        <v>61.917819999999999</v>
       </c>
       <c r="X38" s="28">
-        <v>8.1100560000000002</v>
+        <v>7.8770020000000001</v>
       </c>
       <c r="Y38" s="29">
-        <v>27.164863</v>
+        <v>26.881502999999999</v>
       </c>
       <c r="Z38" s="30">
-        <v>64.725081000000003</v>
+        <v>65.241495</v>
       </c>
       <c r="AA38" s="28">
-        <v>8.2164280000000005</v>
+        <v>8.2070939999999997</v>
       </c>
       <c r="AB38" s="29">
-        <v>32.234482999999997</v>
+        <v>32.182870999999999</v>
       </c>
       <c r="AC38" s="30">
-        <v>59.54909</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+        <v>59.610035000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>100</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>102</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>49.711663999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>104</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>106</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>108</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
         <v>110</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>57.317495000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="26"/>
       <c r="B45" s="27" t="s">
         <v>112</v>
@@ -5455,7 +5455,7 @@
         <v>53.514580000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>113</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>79.731808999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>115</v>
       </c>
@@ -5552,88 +5552,88 @@
         <v>116</v>
       </c>
       <c r="C47" s="21">
-        <v>2.0924360000000002</v>
+        <v>1.3683700000000001</v>
       </c>
       <c r="D47" s="19">
-        <v>8.4120570000000008</v>
+        <v>6.9088649999999996</v>
       </c>
       <c r="E47" s="20">
-        <v>89.495507000000003</v>
+        <v>91.722764999999995</v>
       </c>
       <c r="F47" s="21">
-        <v>1.357253</v>
+        <v>0.94523500000000005</v>
       </c>
       <c r="G47" s="19">
-        <v>5.7679280000000004</v>
+        <v>4.6581349999999997</v>
       </c>
       <c r="H47" s="20">
-        <v>92.874819000000002</v>
+        <v>94.396630999999999</v>
       </c>
       <c r="I47" s="21">
-        <v>2.7837000000000001</v>
+        <v>1.783344</v>
       </c>
       <c r="J47" s="19">
-        <v>10.89809</v>
+        <v>9.1161890000000003</v>
       </c>
       <c r="K47" s="20">
-        <v>86.318209999999993</v>
+        <v>89.100466999999995</v>
       </c>
       <c r="L47" s="21">
-        <v>6.0724499999999999</v>
+        <v>5.5078240000000003</v>
       </c>
       <c r="M47" s="19">
-        <v>20.133659999999999</v>
+        <v>22.056947999999998</v>
       </c>
       <c r="N47" s="20">
-        <v>73.793891000000002</v>
+        <v>72.435227999999995</v>
       </c>
       <c r="O47" s="21">
-        <v>6.5747660000000003</v>
+        <v>4.7676049999999996</v>
       </c>
       <c r="P47" s="19">
-        <v>16.574235000000002</v>
+        <v>15.64986</v>
       </c>
       <c r="Q47" s="20">
-        <v>76.850999000000002</v>
+        <v>79.582534999999993</v>
       </c>
       <c r="R47" s="21">
-        <v>5.8840000000000003</v>
+        <v>5.8735739999999996</v>
       </c>
       <c r="S47" s="19">
-        <v>21.469158</v>
+        <v>25.222348</v>
       </c>
       <c r="T47" s="20">
-        <v>72.646842000000007</v>
+        <v>68.904077999999998</v>
       </c>
       <c r="U47" s="21">
-        <v>0.78964900000000005</v>
+        <v>0.77613100000000002</v>
       </c>
       <c r="V47" s="19">
-        <v>4.5652739999999996</v>
+        <v>4.7416210000000003</v>
       </c>
       <c r="W47" s="20">
-        <v>94.645077999999998</v>
+        <v>94.482247999999998</v>
       </c>
       <c r="X47" s="21">
-        <v>0.51599399999999995</v>
+        <v>0.59658699999999998</v>
       </c>
       <c r="Y47" s="19">
-        <v>4.0255510000000001</v>
+        <v>3.6554859999999998</v>
       </c>
       <c r="Z47" s="20">
-        <v>95.458455000000001</v>
+        <v>95.747928000000002</v>
       </c>
       <c r="AA47" s="21">
-        <v>1.129578</v>
+        <v>0.96959600000000001</v>
       </c>
       <c r="AB47" s="19">
-        <v>5.2356199999999999</v>
+        <v>5.9119679999999999</v>
       </c>
       <c r="AC47" s="20">
-        <v>93.634801999999993</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+        <v>93.118436000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>117</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>36.079574999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>119</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>78.774170999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>121</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>61.336345999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>123</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>45.135567000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>125</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>72.762632999999994</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>127</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>60.158183000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>129</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>59.055613999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>131</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>87.151751000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>133</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>90.713725999999994</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>135</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>62.743324999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>137</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>85.778514999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>139</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>76.810959999999994</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
         <v>141</v>
       </c>
@@ -6790,964 +6790,964 @@
         <v>62.024475000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
         <v>143</v>
       </c>
       <c r="C61" s="28">
-        <v>6.2156840000000004</v>
+        <v>6.1674129999999998</v>
       </c>
       <c r="D61" s="29">
-        <v>24.626971999999999</v>
+        <v>24.526758999999998</v>
       </c>
       <c r="E61" s="30">
-        <v>69.157343999999995</v>
+        <v>69.305826999999994</v>
       </c>
       <c r="F61" s="28">
-        <v>4.7612120000000004</v>
+        <v>4.7337439999999997</v>
       </c>
       <c r="G61" s="29">
-        <v>20.580973</v>
+        <v>20.506986999999999</v>
       </c>
       <c r="H61" s="30">
-        <v>74.657814999999999</v>
+        <v>74.759269000000003</v>
       </c>
       <c r="I61" s="28">
-        <v>7.5284219999999999</v>
+        <v>7.4617310000000003</v>
       </c>
       <c r="J61" s="29">
-        <v>28.444140000000001</v>
+        <v>28.325346</v>
       </c>
       <c r="K61" s="30">
-        <v>64.027439000000001</v>
+        <v>64.212922000000006</v>
       </c>
       <c r="L61" s="28">
-        <v>12.356883</v>
+        <v>12.319241</v>
       </c>
       <c r="M61" s="29">
-        <v>35.401226999999999</v>
+        <v>35.529446</v>
       </c>
       <c r="N61" s="30">
-        <v>52.241891000000003</v>
+        <v>52.151313000000002</v>
       </c>
       <c r="O61" s="28">
-        <v>12.025029</v>
+        <v>11.904551</v>
       </c>
       <c r="P61" s="29">
-        <v>30.615165000000001</v>
+        <v>30.553540000000002</v>
       </c>
       <c r="Q61" s="30">
-        <v>57.359805999999999</v>
+        <v>57.541908999999997</v>
       </c>
       <c r="R61" s="28">
-        <v>12.516638</v>
+        <v>12.515943</v>
       </c>
       <c r="S61" s="29">
-        <v>37.510834000000003</v>
+        <v>37.761046</v>
       </c>
       <c r="T61" s="30">
-        <v>49.972527999999997</v>
+        <v>49.723011</v>
       </c>
       <c r="U61" s="28">
-        <v>4.0392279999999996</v>
+        <v>4.0383259999999996</v>
       </c>
       <c r="V61" s="29">
-        <v>21.345510000000001</v>
+        <v>21.357267</v>
       </c>
       <c r="W61" s="30">
-        <v>74.615262000000001</v>
+        <v>74.604406999999995</v>
       </c>
       <c r="X61" s="28">
-        <v>3.0082420000000001</v>
+        <v>3.0136150000000002</v>
       </c>
       <c r="Y61" s="29">
-        <v>18.563047999999998</v>
+        <v>18.538377000000001</v>
       </c>
       <c r="Z61" s="30">
-        <v>78.428711000000007</v>
+        <v>78.448008999999999</v>
       </c>
       <c r="AA61" s="28">
-        <v>5.206995</v>
+        <v>5.1963299999999997</v>
       </c>
       <c r="AB61" s="29">
-        <v>24.666907999999999</v>
+        <v>24.711998000000001</v>
       </c>
       <c r="AC61" s="30">
-        <v>70.126097000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>70.091672000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
         <v>144</v>
       </c>
       <c r="C62" s="50">
-        <v>10.506246000000001</v>
+        <v>10.494089000000001</v>
       </c>
       <c r="D62" s="51">
-        <v>32.370998</v>
+        <v>32.386713</v>
       </c>
       <c r="E62" s="52">
-        <v>57.122756000000003</v>
+        <v>57.119197999999997</v>
       </c>
       <c r="F62" s="50">
-        <v>10.31277</v>
+        <v>10.292911999999999</v>
       </c>
       <c r="G62" s="51">
-        <v>29.651246</v>
+        <v>29.698252</v>
       </c>
       <c r="H62" s="52">
-        <v>60.035983000000002</v>
+        <v>60.008836000000002</v>
       </c>
       <c r="I62" s="50">
-        <v>10.756432999999999</v>
+        <v>10.75994</v>
       </c>
       <c r="J62" s="51">
-        <v>34.908186999999998</v>
+        <v>34.901390999999997</v>
       </c>
       <c r="K62" s="52">
-        <v>54.335380000000001</v>
+        <v>54.338669000000003</v>
       </c>
       <c r="L62" s="50">
-        <v>15.878337</v>
+        <v>15.870277</v>
       </c>
       <c r="M62" s="51">
-        <v>41.002229999999997</v>
+        <v>41.048870000000001</v>
       </c>
       <c r="N62" s="52">
-        <v>43.119433000000001</v>
+        <v>43.080852999999998</v>
       </c>
       <c r="O62" s="50">
-        <v>16.987290000000002</v>
+        <v>16.94051</v>
       </c>
       <c r="P62" s="51">
-        <v>38.642848999999998</v>
+        <v>38.618488999999997</v>
       </c>
       <c r="Q62" s="52">
-        <v>44.369861999999998</v>
+        <v>44.441001</v>
       </c>
       <c r="R62" s="50">
-        <v>15.229882</v>
+        <v>15.257464000000001</v>
       </c>
       <c r="S62" s="51">
-        <v>42.26079</v>
+        <v>42.360055000000003</v>
       </c>
       <c r="T62" s="52">
-        <v>42.509329000000001</v>
+        <v>42.382480000000001</v>
       </c>
       <c r="U62" s="50">
-        <v>7.4297120000000003</v>
+        <v>7.4132449999999999</v>
       </c>
       <c r="V62" s="51">
-        <v>28.273242</v>
+        <v>28.238177</v>
       </c>
       <c r="W62" s="52">
-        <v>64.297045999999995</v>
+        <v>64.348578000000003</v>
       </c>
       <c r="X62" s="50">
-        <v>7.0135100000000001</v>
+        <v>6.9741720000000003</v>
       </c>
       <c r="Y62" s="51">
-        <v>25.920147</v>
+        <v>25.832446000000001</v>
       </c>
       <c r="Z62" s="52">
-        <v>67.066343000000003</v>
+        <v>67.193382</v>
       </c>
       <c r="AA62" s="50">
-        <v>7.9117699999999997</v>
+        <v>7.8955669999999998</v>
       </c>
       <c r="AB62" s="51">
-        <v>30.558243000000001</v>
+        <v>30.575406999999998</v>
       </c>
       <c r="AC62" s="52">
-        <v>61.529986999999998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>61.529026000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
         <v>145</v>
       </c>
       <c r="C63" s="50">
-        <v>17.942907999999999</v>
+        <v>18.056602000000002</v>
       </c>
       <c r="D63" s="51">
-        <v>54.439352</v>
+        <v>54.563859000000001</v>
       </c>
       <c r="E63" s="52">
-        <v>27.617740000000001</v>
+        <v>27.379539000000001</v>
       </c>
       <c r="F63" s="50">
-        <v>19.271250999999999</v>
+        <v>19.41723</v>
       </c>
       <c r="G63" s="51">
-        <v>53.841135999999999</v>
+        <v>53.930740999999998</v>
       </c>
       <c r="H63" s="52">
-        <v>26.887613000000002</v>
+        <v>26.652028999999999</v>
       </c>
       <c r="I63" s="50">
-        <v>16.818401000000001</v>
+        <v>16.913519999999998</v>
       </c>
       <c r="J63" s="51">
-        <v>54.943269999999998</v>
+        <v>55.078277999999997</v>
       </c>
       <c r="K63" s="52">
-        <v>28.238327999999999</v>
+        <v>28.008202000000001</v>
       </c>
       <c r="L63" s="50">
-        <v>20.600269000000001</v>
+        <v>20.67652</v>
       </c>
       <c r="M63" s="51">
-        <v>55.401569000000002</v>
+        <v>55.449956</v>
       </c>
       <c r="N63" s="52">
-        <v>23.998162000000001</v>
+        <v>23.873524</v>
       </c>
       <c r="O63" s="50">
-        <v>21.771187999999999</v>
+        <v>21.882141000000001</v>
       </c>
       <c r="P63" s="51">
-        <v>55.441980000000001</v>
+        <v>55.433863000000002</v>
       </c>
       <c r="Q63" s="52">
-        <v>22.786832</v>
+        <v>22.683996</v>
       </c>
       <c r="R63" s="50">
-        <v>19.426141000000001</v>
+        <v>19.479205</v>
       </c>
       <c r="S63" s="51">
-        <v>55.675218999999998</v>
+        <v>55.757477999999999</v>
       </c>
       <c r="T63" s="52">
-        <v>24.89864</v>
+        <v>24.763317000000001</v>
       </c>
       <c r="U63" s="50">
-        <v>13.326096</v>
+        <v>13.577648999999999</v>
       </c>
       <c r="V63" s="51">
-        <v>52.995995000000001</v>
+        <v>53.220652000000001</v>
       </c>
       <c r="W63" s="52">
-        <v>33.677909999999997</v>
+        <v>33.201698999999998</v>
       </c>
       <c r="X63" s="50">
-        <v>15.211990999999999</v>
+        <v>15.53514</v>
       </c>
       <c r="Y63" s="51">
-        <v>52.913393999999997</v>
+        <v>53.150129</v>
       </c>
       <c r="Z63" s="52">
-        <v>31.874614999999999</v>
+        <v>31.314730999999998</v>
       </c>
       <c r="AA63" s="50">
-        <v>12.498033</v>
+        <v>12.720903</v>
       </c>
       <c r="AB63" s="51">
-        <v>53.323821000000002</v>
+        <v>53.520262000000002</v>
       </c>
       <c r="AC63" s="52">
-        <v>34.178145999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+        <v>33.758834999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
         <v>146</v>
       </c>
       <c r="C64" s="55">
-        <v>17.209409000000001</v>
+        <v>17.690435999999998</v>
       </c>
       <c r="D64" s="56">
-        <v>49.346733</v>
+        <v>49.828840999999997</v>
       </c>
       <c r="E64" s="57">
-        <v>33.443857999999999</v>
+        <v>32.480722999999998</v>
       </c>
       <c r="F64" s="55">
-        <v>18.988986000000001</v>
+        <v>19.373016</v>
       </c>
       <c r="G64" s="56">
-        <v>50.861485999999999</v>
+        <v>51.380805000000002</v>
       </c>
       <c r="H64" s="57">
-        <v>30.149528</v>
+        <v>29.246179000000001</v>
       </c>
       <c r="I64" s="55">
-        <v>15.892151999999999</v>
+        <v>16.450461000000001</v>
       </c>
       <c r="J64" s="56">
-        <v>48.323514000000003</v>
+        <v>48.768268999999997</v>
       </c>
       <c r="K64" s="57">
-        <v>35.784334000000001</v>
+        <v>34.781269999999999</v>
       </c>
       <c r="L64" s="55">
-        <v>20.0715</v>
+        <v>20.466981000000001</v>
       </c>
       <c r="M64" s="56">
-        <v>52.215260000000001</v>
+        <v>52.579889000000001</v>
       </c>
       <c r="N64" s="57">
-        <v>27.713239999999999</v>
+        <v>26.953130000000002</v>
       </c>
       <c r="O64" s="55">
-        <v>21.810358999999998</v>
+        <v>22.153611999999999</v>
       </c>
       <c r="P64" s="56">
-        <v>54.519598999999999</v>
+        <v>54.848187000000003</v>
       </c>
       <c r="Q64" s="57">
-        <v>23.670041999999999</v>
+        <v>22.998201000000002</v>
       </c>
       <c r="R64" s="55">
-        <v>18.687564999999999</v>
+        <v>19.119617000000002</v>
       </c>
       <c r="S64" s="56">
-        <v>50.602136000000002</v>
+        <v>50.988968999999997</v>
       </c>
       <c r="T64" s="57">
-        <v>30.710298999999999</v>
+        <v>29.891414000000001</v>
       </c>
       <c r="U64" s="55">
-        <v>11.998099</v>
+        <v>12.708005</v>
       </c>
       <c r="V64" s="56">
-        <v>45.159981000000002</v>
+        <v>45.908324</v>
       </c>
       <c r="W64" s="57">
-        <v>42.841920999999999</v>
+        <v>41.383671</v>
       </c>
       <c r="X64" s="55">
-        <v>13.485958999999999</v>
+        <v>14.118202</v>
       </c>
       <c r="Y64" s="56">
-        <v>46.130049999999997</v>
+        <v>46.963298999999999</v>
       </c>
       <c r="Z64" s="57">
-        <v>40.383991000000002</v>
+        <v>38.918498999999997</v>
       </c>
       <c r="AA64" s="55">
-        <v>11.161790999999999</v>
+        <v>11.892389</v>
       </c>
       <c r="AB64" s="56">
-        <v>44.860244000000002</v>
+        <v>45.537063000000003</v>
       </c>
       <c r="AC64" s="57">
-        <v>43.977964999999998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+        <v>42.570549</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
         <v>147</v>
       </c>
       <c r="C65" s="59">
-        <v>14.923323999999999</v>
+        <v>14.917678</v>
       </c>
       <c r="D65" s="60">
-        <v>42.749639999999999</v>
+        <v>42.840795</v>
       </c>
       <c r="E65" s="61">
-        <v>42.327036</v>
+        <v>42.241528000000002</v>
       </c>
       <c r="F65" s="59">
-        <v>14.414337</v>
+        <v>14.401709</v>
       </c>
       <c r="G65" s="60">
-        <v>41.203958</v>
+        <v>41.277616000000002</v>
       </c>
       <c r="H65" s="61">
-        <v>44.381704999999997</v>
+        <v>44.320675000000001</v>
       </c>
       <c r="I65" s="59">
-        <v>15.065262000000001</v>
+        <v>15.06162</v>
       </c>
       <c r="J65" s="60">
-        <v>43.772171</v>
+        <v>43.848697000000001</v>
       </c>
       <c r="K65" s="61">
-        <v>41.162567000000003</v>
+        <v>41.089683000000001</v>
       </c>
       <c r="L65" s="59">
-        <v>20.063559000000001</v>
+        <v>20.048524</v>
       </c>
       <c r="M65" s="60">
-        <v>46.304907999999998</v>
+        <v>46.319648999999998</v>
       </c>
       <c r="N65" s="61">
-        <v>33.631532999999997</v>
+        <v>33.631827000000001</v>
       </c>
       <c r="O65" s="59">
-        <v>19.367519000000001</v>
+        <v>19.385202</v>
       </c>
       <c r="P65" s="60">
-        <v>46.989564999999999</v>
+        <v>46.958362000000001</v>
       </c>
       <c r="Q65" s="61">
-        <v>33.642916</v>
+        <v>33.656435000000002</v>
       </c>
       <c r="R65" s="59">
-        <v>20.009656</v>
+        <v>19.987836000000001</v>
       </c>
       <c r="S65" s="60">
-        <v>46.442821000000002</v>
+        <v>46.480210999999997</v>
       </c>
       <c r="T65" s="61">
-        <v>33.547522999999998</v>
+        <v>33.531953000000001</v>
       </c>
       <c r="U65" s="59">
-        <v>11.553417</v>
+        <v>11.560743</v>
       </c>
       <c r="V65" s="60">
-        <v>39.227442000000003</v>
+        <v>39.323694000000003</v>
       </c>
       <c r="W65" s="61">
-        <v>49.219141</v>
+        <v>49.115563999999999</v>
       </c>
       <c r="X65" s="59">
-        <v>11.966756</v>
+        <v>11.955527999999999</v>
       </c>
       <c r="Y65" s="60">
-        <v>36.786107000000001</v>
+        <v>36.904749000000002</v>
       </c>
       <c r="Z65" s="61">
-        <v>51.247137000000002</v>
+        <v>51.139724000000001</v>
       </c>
       <c r="AA65" s="59">
-        <v>11.197796</v>
+        <v>11.215222000000001</v>
       </c>
       <c r="AB65" s="60">
-        <v>40.720126999999998</v>
+        <v>40.773727000000001</v>
       </c>
       <c r="AC65" s="61">
-        <v>48.082076999999998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48.011051000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
         <v>148</v>
       </c>
       <c r="C66" s="63">
-        <v>15.900444999999999</v>
+        <v>15.979574</v>
       </c>
       <c r="D66" s="64">
-        <v>48.378324999999997</v>
+        <v>48.472952999999997</v>
       </c>
       <c r="E66" s="65">
-        <v>35.721229999999998</v>
+        <v>35.547472999999997</v>
       </c>
       <c r="F66" s="63">
-        <v>16.810822999999999</v>
+        <v>16.911255000000001</v>
       </c>
       <c r="G66" s="64">
-        <v>47.197434000000001</v>
+        <v>47.275339000000002</v>
       </c>
       <c r="H66" s="65">
-        <v>35.991743</v>
+        <v>35.813406000000001</v>
       </c>
       <c r="I66" s="63">
-        <v>15.153494</v>
+        <v>15.223452</v>
       </c>
       <c r="J66" s="64">
-        <v>49.440677000000001</v>
+        <v>49.536738999999997</v>
       </c>
       <c r="K66" s="65">
-        <v>35.405828999999997</v>
+        <v>35.239809000000001</v>
       </c>
       <c r="L66" s="63">
-        <v>19.3034</v>
+        <v>19.356496</v>
       </c>
       <c r="M66" s="64">
-        <v>51.446821</v>
+        <v>51.494728000000002</v>
       </c>
       <c r="N66" s="65">
-        <v>29.249779</v>
+        <v>29.148776999999999</v>
       </c>
       <c r="O66" s="63">
-        <v>20.457301000000001</v>
+        <v>20.524932</v>
       </c>
       <c r="P66" s="64">
-        <v>50.828133999999999</v>
+        <v>50.815556000000001</v>
       </c>
       <c r="Q66" s="65">
-        <v>28.714565</v>
+        <v>28.659511999999999</v>
       </c>
       <c r="R66" s="63">
-        <v>18.273647</v>
+        <v>18.319713</v>
       </c>
       <c r="S66" s="64">
-        <v>51.990974000000001</v>
+        <v>52.077903999999997</v>
       </c>
       <c r="T66" s="65">
-        <v>29.735378999999998</v>
+        <v>29.602383</v>
       </c>
       <c r="U66" s="63">
-        <v>11.706666999999999</v>
+        <v>11.884608</v>
       </c>
       <c r="V66" s="64">
-        <v>46.205942999999998</v>
+        <v>46.359268</v>
       </c>
       <c r="W66" s="65">
-        <v>42.087390999999997</v>
+        <v>41.756124</v>
       </c>
       <c r="X66" s="63">
-        <v>12.928127999999999</v>
+        <v>13.150299</v>
       </c>
       <c r="Y66" s="64">
-        <v>45.393847000000001</v>
+        <v>45.540202999999998</v>
       </c>
       <c r="Z66" s="65">
-        <v>41.678024999999998</v>
+        <v>41.309497999999998</v>
       </c>
       <c r="AA66" s="63">
-        <v>11.238424999999999</v>
+        <v>11.395635</v>
       </c>
       <c r="AB66" s="64">
-        <v>47.071303</v>
+        <v>47.218505999999998</v>
       </c>
       <c r="AC66" s="65">
-        <v>41.690271000000003</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+        <v>41.385859000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
         <v>149</v>
       </c>
       <c r="C67" s="59">
-        <v>13.932409</v>
+        <v>13.865053</v>
       </c>
       <c r="D67" s="60">
-        <v>40.229593000000001</v>
+        <v>40.383890999999998</v>
       </c>
       <c r="E67" s="61">
-        <v>45.837997000000001</v>
+        <v>45.751057000000003</v>
       </c>
       <c r="F67" s="59">
-        <v>14.216492000000001</v>
+        <v>14.074835</v>
       </c>
       <c r="G67" s="60">
-        <v>38.41075</v>
+        <v>38.653202</v>
       </c>
       <c r="H67" s="61">
-        <v>47.372757999999997</v>
+        <v>47.271963</v>
       </c>
       <c r="I67" s="59">
-        <v>13.804843999999999</v>
+        <v>13.830266999999999</v>
       </c>
       <c r="J67" s="60">
-        <v>41.770372000000002</v>
+        <v>41.854975000000003</v>
       </c>
       <c r="K67" s="61">
-        <v>44.424784000000002</v>
+        <v>44.314757</v>
       </c>
       <c r="L67" s="59">
-        <v>18.766249999999999</v>
+        <v>18.682113999999999</v>
       </c>
       <c r="M67" s="60">
-        <v>45.019379000000001</v>
+        <v>45.025419999999997</v>
       </c>
       <c r="N67" s="61">
-        <v>36.214371</v>
+        <v>36.292465999999997</v>
       </c>
       <c r="O67" s="59">
-        <v>20.204156999999999</v>
+        <v>20.075797999999999</v>
       </c>
       <c r="P67" s="60">
-        <v>44.521149999999999</v>
+        <v>44.565311999999999</v>
       </c>
       <c r="Q67" s="61">
-        <v>35.274692000000002</v>
+        <v>35.358890000000002</v>
       </c>
       <c r="R67" s="59">
-        <v>18.139029000000001</v>
+        <v>18.138845</v>
       </c>
       <c r="S67" s="60">
-        <v>45.732416000000001</v>
+        <v>45.722205000000002</v>
       </c>
       <c r="T67" s="61">
-        <v>36.128554999999999</v>
+        <v>36.138950000000001</v>
       </c>
       <c r="U67" s="59">
-        <v>9.9496549999999999</v>
+        <v>9.8868120000000008</v>
       </c>
       <c r="V67" s="60">
-        <v>36.287495</v>
+        <v>36.165126000000001</v>
       </c>
       <c r="W67" s="61">
-        <v>53.76285</v>
+        <v>53.948062</v>
       </c>
       <c r="X67" s="59">
-        <v>9.5816420000000004</v>
+        <v>9.410736</v>
       </c>
       <c r="Y67" s="60">
-        <v>33.478287999999999</v>
+        <v>33.270491</v>
       </c>
       <c r="Z67" s="61">
-        <v>56.940069999999999</v>
+        <v>57.318773</v>
       </c>
       <c r="AA67" s="59">
-        <v>10.135616000000001</v>
+        <v>10.128772</v>
       </c>
       <c r="AB67" s="60">
-        <v>38.157245000000003</v>
+        <v>38.119396000000002</v>
       </c>
       <c r="AC67" s="61">
-        <v>51.707138999999998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+        <v>51.751832</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
         <v>150</v>
       </c>
       <c r="C68" s="59">
-        <v>6.2927140000000001</v>
+        <v>6.2546049999999997</v>
       </c>
       <c r="D68" s="60">
-        <v>23.945864</v>
+        <v>23.866748999999999</v>
       </c>
       <c r="E68" s="61">
-        <v>69.761421999999996</v>
+        <v>69.878646000000003</v>
       </c>
       <c r="F68" s="59">
-        <v>5.3861809999999997</v>
+        <v>5.3644959999999999</v>
       </c>
       <c r="G68" s="60">
-        <v>20.695118000000001</v>
+        <v>20.636707000000001</v>
       </c>
       <c r="H68" s="61">
-        <v>73.918701999999996</v>
+        <v>73.998796999999996</v>
       </c>
       <c r="I68" s="59">
-        <v>7.1801130000000004</v>
+        <v>7.1274629999999997</v>
       </c>
       <c r="J68" s="60">
-        <v>26.912655999999998</v>
+        <v>26.818871999999999</v>
       </c>
       <c r="K68" s="61">
-        <v>65.907230999999996</v>
+        <v>66.053664999999995</v>
       </c>
       <c r="L68" s="59">
-        <v>12.17024</v>
+        <v>12.140523</v>
       </c>
       <c r="M68" s="60">
-        <v>34.126598000000001</v>
+        <v>34.227823999999998</v>
       </c>
       <c r="N68" s="61">
-        <v>53.703161999999999</v>
+        <v>53.631653</v>
       </c>
       <c r="O68" s="59">
-        <v>12.647608</v>
+        <v>12.552493999999999</v>
       </c>
       <c r="P68" s="60">
-        <v>31.658349000000001</v>
+        <v>31.609698000000002</v>
       </c>
       <c r="Q68" s="61">
-        <v>55.694043000000001</v>
+        <v>55.837808000000003</v>
       </c>
       <c r="R68" s="59">
-        <v>12.111699</v>
+        <v>12.111151</v>
       </c>
       <c r="S68" s="60">
-        <v>35.521540999999999</v>
+        <v>35.719076999999999</v>
       </c>
       <c r="T68" s="61">
-        <v>52.366759999999999</v>
+        <v>52.169772000000002</v>
       </c>
       <c r="U68" s="59">
-        <v>3.8128700000000002</v>
+        <v>3.8121589999999999</v>
       </c>
       <c r="V68" s="60">
-        <v>19.758302</v>
+        <v>19.767582999999998</v>
       </c>
       <c r="W68" s="61">
-        <v>76.428827999999996</v>
+        <v>76.420258000000004</v>
       </c>
       <c r="X68" s="59">
-        <v>2.9325269999999999</v>
+        <v>2.936769</v>
       </c>
       <c r="Y68" s="60">
-        <v>16.694576000000001</v>
+        <v>16.675098999999999</v>
       </c>
       <c r="Z68" s="61">
-        <v>80.372896999999995</v>
+        <v>80.388131999999999</v>
       </c>
       <c r="AA68" s="59">
-        <v>4.5701850000000004</v>
+        <v>4.5617650000000003</v>
       </c>
       <c r="AB68" s="60">
-        <v>22.486739</v>
+        <v>22.522337</v>
       </c>
       <c r="AC68" s="61">
-        <v>72.943076000000005</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+        <v>72.915897999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
         <v>151</v>
       </c>
       <c r="C69" s="59">
-        <v>10.777639000000001</v>
+        <v>11.152426</v>
       </c>
       <c r="D69" s="60">
-        <v>39.030065999999998</v>
+        <v>39.535221999999997</v>
       </c>
       <c r="E69" s="61">
-        <v>50.192295000000001</v>
+        <v>49.312351999999997</v>
       </c>
       <c r="F69" s="59">
-        <v>9.4160149999999998</v>
+        <v>9.8629840000000009</v>
       </c>
       <c r="G69" s="60">
-        <v>36.607494000000003</v>
+        <v>37.372155999999997</v>
       </c>
       <c r="H69" s="61">
-        <v>53.976491000000003</v>
+        <v>52.764859000000001</v>
       </c>
       <c r="I69" s="59">
-        <v>12.022577</v>
+        <v>12.331899999999999</v>
       </c>
       <c r="J69" s="60">
-        <v>41.322158999999999</v>
+        <v>41.588397999999998</v>
       </c>
       <c r="K69" s="61">
-        <v>46.655264000000003</v>
+        <v>46.079701999999997</v>
       </c>
       <c r="L69" s="59">
-        <v>18.834019999999999</v>
+        <v>19.207650999999998</v>
       </c>
       <c r="M69" s="60">
-        <v>51.488841999999998</v>
+        <v>51.117621</v>
       </c>
       <c r="N69" s="61">
-        <v>29.677137999999999</v>
+        <v>29.674728000000002</v>
       </c>
       <c r="O69" s="59">
-        <v>18.346145</v>
+        <v>18.864459</v>
       </c>
       <c r="P69" s="60">
-        <v>51.776839000000002</v>
+        <v>51.603341999999998</v>
       </c>
       <c r="Q69" s="61">
-        <v>29.877016000000001</v>
+        <v>29.532198999999999</v>
       </c>
       <c r="R69" s="59">
-        <v>19.068093000000001</v>
+        <v>19.327490999999998</v>
       </c>
       <c r="S69" s="60">
-        <v>51.233901000000003</v>
+        <v>50.708334999999998</v>
       </c>
       <c r="T69" s="61">
-        <v>29.698005999999999</v>
+        <v>29.964175000000001</v>
       </c>
       <c r="U69" s="59">
-        <v>7.5252299999999996</v>
+        <v>7.7895440000000002</v>
       </c>
       <c r="V69" s="60">
-        <v>32.415042999999997</v>
+        <v>33.569178999999998</v>
       </c>
       <c r="W69" s="61">
-        <v>60.059728</v>
+        <v>58.641277000000002</v>
       </c>
       <c r="X69" s="59">
-        <v>6.7995979999999996</v>
+        <v>7.0076390000000002</v>
       </c>
       <c r="Y69" s="60">
-        <v>30.120633000000002</v>
+        <v>31.271339000000001</v>
       </c>
       <c r="Z69" s="61">
-        <v>63.079768999999999</v>
+        <v>61.721023000000002</v>
       </c>
       <c r="AA69" s="59">
-        <v>8.3258419999999997</v>
+        <v>8.6382899999999996</v>
       </c>
       <c r="AB69" s="60">
-        <v>34.944561999999998</v>
+        <v>36.066265999999999</v>
       </c>
       <c r="AC69" s="61">
-        <v>56.729596999999998</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+        <v>55.295444000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
         <v>152</v>
       </c>
       <c r="C70" s="59">
-        <v>4.4352020000000003</v>
+        <v>4.8099889999999998</v>
       </c>
       <c r="D70" s="60">
-        <v>28.156337000000001</v>
+        <v>28.661493</v>
       </c>
       <c r="E70" s="61">
-        <v>67.408461000000003</v>
+        <v>66.528518000000005</v>
       </c>
       <c r="F70" s="59">
-        <v>4.0117729999999998</v>
+        <v>4.458742</v>
       </c>
       <c r="G70" s="60">
-        <v>24.597953</v>
+        <v>25.362615000000002</v>
       </c>
       <c r="H70" s="61">
-        <v>71.390274000000005</v>
+        <v>70.178642999999994</v>
       </c>
       <c r="I70" s="59">
-        <v>4.8067219999999997</v>
+        <v>5.1160449999999997</v>
       </c>
       <c r="J70" s="60">
-        <v>31.669253000000001</v>
+        <v>31.935492</v>
       </c>
       <c r="K70" s="61">
-        <v>63.524025000000002</v>
+        <v>62.948462999999997</v>
       </c>
       <c r="L70" s="59">
-        <v>9.6175809999999995</v>
+        <v>9.9912120000000009</v>
       </c>
       <c r="M70" s="60">
-        <v>39.606107999999999</v>
+        <v>39.234886000000003</v>
       </c>
       <c r="N70" s="61">
-        <v>50.776311</v>
+        <v>50.773901000000002</v>
       </c>
       <c r="O70" s="59">
-        <v>11.524259000000001</v>
+        <v>12.042573000000001</v>
       </c>
       <c r="P70" s="60">
-        <v>36.366173000000003</v>
+        <v>36.192675000000001</v>
       </c>
       <c r="Q70" s="61">
-        <v>52.109569</v>
+        <v>51.764752000000001</v>
       </c>
       <c r="R70" s="59">
-        <v>8.8376619999999999</v>
+        <v>9.0970589999999998</v>
       </c>
       <c r="S70" s="60">
-        <v>41.064971</v>
+        <v>40.539405000000002</v>
       </c>
       <c r="T70" s="61">
-        <v>50.097366999999998</v>
+        <v>50.363534999999999</v>
       </c>
       <c r="U70" s="59">
-        <v>2.8862510000000001</v>
+        <v>3.1505649999999998</v>
       </c>
       <c r="V70" s="60">
-        <v>21.944261000000001</v>
+        <v>23.098396999999999</v>
       </c>
       <c r="W70" s="61">
-        <v>75.169488000000001</v>
+        <v>73.751037999999994</v>
       </c>
       <c r="X70" s="59">
-        <v>2.520632</v>
+        <v>2.7286730000000001</v>
       </c>
       <c r="Y70" s="60">
-        <v>19.807272000000001</v>
+        <v>20.957978000000001</v>
       </c>
       <c r="Z70" s="61">
-        <v>77.672095999999996</v>
+        <v>76.313349000000002</v>
       </c>
       <c r="AA70" s="59">
-        <v>3.2807010000000001</v>
+        <v>3.5931489999999999</v>
       </c>
       <c r="AB70" s="60">
-        <v>24.598420000000001</v>
+        <v>25.720124999999999</v>
       </c>
       <c r="AC70" s="61">
-        <v>72.120879000000002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+        <v>70.686725999999993</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
         <v>153</v>
       </c>
       <c r="C71" s="59">
-        <v>6.2156840000000004</v>
+        <v>6.1674129999999998</v>
       </c>
       <c r="D71" s="60">
-        <v>24.626971999999999</v>
+        <v>24.526758999999998</v>
       </c>
       <c r="E71" s="61">
-        <v>69.157343999999995</v>
+        <v>69.305826999999994</v>
       </c>
       <c r="F71" s="59">
-        <v>4.7612120000000004</v>
+        <v>4.7337439999999997</v>
       </c>
       <c r="G71" s="60">
-        <v>20.580973</v>
+        <v>20.506986999999999</v>
       </c>
       <c r="H71" s="61">
-        <v>74.657814999999999</v>
+        <v>74.759269000000003</v>
       </c>
       <c r="I71" s="59">
-        <v>7.5284219999999999</v>
+        <v>7.4617310000000003</v>
       </c>
       <c r="J71" s="60">
-        <v>28.444140000000001</v>
+        <v>28.325346</v>
       </c>
       <c r="K71" s="61">
-        <v>64.027439000000001</v>
+        <v>64.212922000000006</v>
       </c>
       <c r="L71" s="59">
-        <v>12.356883</v>
+        <v>12.319241</v>
       </c>
       <c r="M71" s="60">
-        <v>35.401226999999999</v>
+        <v>35.529446</v>
       </c>
       <c r="N71" s="61">
-        <v>52.241891000000003</v>
+        <v>52.151313000000002</v>
       </c>
       <c r="O71" s="59">
-        <v>12.025029</v>
+        <v>11.904551</v>
       </c>
       <c r="P71" s="60">
-        <v>30.615165000000001</v>
+        <v>30.553540000000002</v>
       </c>
       <c r="Q71" s="61">
-        <v>57.359805999999999</v>
+        <v>57.541908999999997</v>
       </c>
       <c r="R71" s="59">
-        <v>12.516638</v>
+        <v>12.515943</v>
       </c>
       <c r="S71" s="60">
-        <v>37.510834000000003</v>
+        <v>37.761046</v>
       </c>
       <c r="T71" s="61">
-        <v>49.972527999999997</v>
+        <v>49.723011</v>
       </c>
       <c r="U71" s="59">
-        <v>4.0392279999999996</v>
+        <v>4.0383259999999996</v>
       </c>
       <c r="V71" s="60">
-        <v>21.345510000000001</v>
+        <v>21.357267</v>
       </c>
       <c r="W71" s="61">
-        <v>74.615262000000001</v>
+        <v>74.604406999999995</v>
       </c>
       <c r="X71" s="59">
-        <v>3.0082420000000001</v>
+        <v>3.0136150000000002</v>
       </c>
       <c r="Y71" s="60">
-        <v>18.563047999999998</v>
+        <v>18.538377000000001</v>
       </c>
       <c r="Z71" s="61">
-        <v>78.428711000000007</v>
+        <v>78.448008999999999</v>
       </c>
       <c r="AA71" s="59">
-        <v>5.206995</v>
+        <v>5.1963299999999997</v>
       </c>
       <c r="AB71" s="60">
-        <v>24.666907999999999</v>
+        <v>24.711998000000001</v>
       </c>
       <c r="AC71" s="61">
-        <v>70.126097000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+        <v>70.091672000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
         <v>154</v>
@@ -7834,94 +7834,94 @@
         <v>64.145011999999994</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
         <v>155</v>
       </c>
       <c r="C73" s="59">
-        <v>16.140741999999999</v>
+        <v>16.051514000000001</v>
       </c>
       <c r="D73" s="60">
-        <v>40.782393999999996</v>
+        <v>40.789211000000002</v>
       </c>
       <c r="E73" s="61">
-        <v>43.076863000000003</v>
+        <v>43.159275000000001</v>
       </c>
       <c r="F73" s="59">
-        <v>17.325738999999999</v>
+        <v>17.172143999999999</v>
       </c>
       <c r="G73" s="60">
-        <v>38.778606000000003</v>
+        <v>38.770347999999998</v>
       </c>
       <c r="H73" s="61">
-        <v>43.895654</v>
+        <v>44.057507999999999</v>
       </c>
       <c r="I73" s="59">
-        <v>15.157283</v>
+        <v>15.150129</v>
       </c>
       <c r="J73" s="60">
-        <v>42.760716000000002</v>
+        <v>42.792994</v>
       </c>
       <c r="K73" s="61">
-        <v>42.082000999999998</v>
+        <v>42.056877</v>
       </c>
       <c r="L73" s="59">
-        <v>20.284331999999999</v>
+        <v>20.195457999999999</v>
       </c>
       <c r="M73" s="60">
-        <v>47.410744999999999</v>
+        <v>47.509355999999997</v>
       </c>
       <c r="N73" s="61">
-        <v>32.304923000000002</v>
+        <v>32.295186000000001</v>
       </c>
       <c r="O73" s="59">
-        <v>22.897970000000001</v>
+        <v>22.748647999999999</v>
       </c>
       <c r="P73" s="60">
-        <v>45.816217999999999</v>
+        <v>45.863956000000002</v>
       </c>
       <c r="Q73" s="61">
-        <v>31.285812</v>
+        <v>31.387395999999999</v>
       </c>
       <c r="R73" s="59">
-        <v>18.591756</v>
+        <v>18.595224999999999</v>
       </c>
       <c r="S73" s="60">
-        <v>48.323936000000003</v>
+        <v>48.482537999999998</v>
       </c>
       <c r="T73" s="61">
-        <v>33.084308</v>
+        <v>32.922237000000003</v>
       </c>
       <c r="U73" s="59">
-        <v>11.963808</v>
+        <v>11.843382999999999</v>
       </c>
       <c r="V73" s="60">
-        <v>36.656202999999998</v>
+        <v>36.216169999999998</v>
       </c>
       <c r="W73" s="61">
-        <v>51.379989999999999</v>
+        <v>51.940446999999999</v>
       </c>
       <c r="X73" s="59">
-        <v>12.37542</v>
+        <v>12.20064</v>
       </c>
       <c r="Y73" s="60">
-        <v>35.094372999999997</v>
+        <v>34.547725</v>
       </c>
       <c r="Z73" s="61">
-        <v>52.530206999999997</v>
+        <v>53.251635999999998</v>
       </c>
       <c r="AA73" s="59">
-        <v>11.746477000000001</v>
+        <v>11.623495</v>
       </c>
       <c r="AB73" s="60">
-        <v>38.319744</v>
+        <v>37.998759999999997</v>
       </c>
       <c r="AC73" s="61">
-        <v>49.933779000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+        <v>50.377744999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
         <v>156</v>
@@ -8008,7 +8008,7 @@
         <v>57.317495000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
         <v>157</v>
@@ -8095,355 +8095,355 @@
         <v>65.286710999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
         <v>158</v>
       </c>
       <c r="C76" s="70">
-        <v>20.384385000000002</v>
+        <v>20.405674999999999</v>
       </c>
       <c r="D76" s="71">
-        <v>45.939036000000002</v>
+        <v>45.990541999999998</v>
       </c>
       <c r="E76" s="72">
-        <v>33.676578999999997</v>
+        <v>33.603783999999997</v>
       </c>
       <c r="F76" s="70">
-        <v>19.971599999999999</v>
+        <v>19.982247999999998</v>
       </c>
       <c r="G76" s="71">
-        <v>45.320526999999998</v>
+        <v>45.404712000000004</v>
       </c>
       <c r="H76" s="72">
-        <v>34.707872999999999</v>
+        <v>34.613039999999998</v>
       </c>
       <c r="I76" s="70">
-        <v>20.742231</v>
+        <v>20.775908000000001</v>
       </c>
       <c r="J76" s="71">
-        <v>46.593707000000002</v>
+        <v>46.615285</v>
       </c>
       <c r="K76" s="72">
-        <v>32.664062000000001</v>
+        <v>32.608806999999999</v>
       </c>
       <c r="L76" s="70">
-        <v>28.226334999999999</v>
+        <v>28.200583999999999</v>
       </c>
       <c r="M76" s="71">
-        <v>47.974426000000001</v>
+        <v>47.94406</v>
       </c>
       <c r="N76" s="72">
-        <v>23.799239</v>
+        <v>23.855356</v>
       </c>
       <c r="O76" s="70">
-        <v>27.729505</v>
+        <v>27.698639</v>
       </c>
       <c r="P76" s="71">
-        <v>48.677891000000002</v>
+        <v>48.684260000000002</v>
       </c>
       <c r="Q76" s="72">
-        <v>23.592604000000001</v>
+        <v>23.617100000000001</v>
       </c>
       <c r="R76" s="70">
-        <v>28.347999000000002</v>
+        <v>28.329782999999999</v>
       </c>
       <c r="S76" s="71">
-        <v>47.528292999999998</v>
+        <v>47.465485999999999</v>
       </c>
       <c r="T76" s="72">
-        <v>24.123708000000001</v>
+        <v>24.204730999999999</v>
       </c>
       <c r="U76" s="70">
-        <v>15.089695000000001</v>
+        <v>15.138539</v>
       </c>
       <c r="V76" s="71">
-        <v>42.969774999999998</v>
+        <v>43.047727999999999</v>
       </c>
       <c r="W76" s="72">
-        <v>41.940530000000003</v>
+        <v>41.813732999999999</v>
       </c>
       <c r="X76" s="70">
-        <v>15.226455</v>
+        <v>15.251110000000001</v>
       </c>
       <c r="Y76" s="71">
-        <v>42.430501</v>
+        <v>42.521321</v>
       </c>
       <c r="Z76" s="72">
-        <v>42.343043999999999</v>
+        <v>42.227569000000003</v>
       </c>
       <c r="AA76" s="70">
-        <v>14.995913</v>
+        <v>15.067352</v>
       </c>
       <c r="AB76" s="71">
-        <v>43.658954000000001</v>
+        <v>43.720134999999999</v>
       </c>
       <c r="AC76" s="72">
-        <v>41.345132999999997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+        <v>41.212513000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
         <v>159</v>
       </c>
       <c r="C77" s="59">
-        <v>17.301114999999999</v>
+        <v>17.539411999999999</v>
       </c>
       <c r="D77" s="60">
-        <v>51.287247999999998</v>
+        <v>52.000070999999998</v>
       </c>
       <c r="E77" s="61">
-        <v>31.411636999999999</v>
+        <v>30.460515999999998</v>
       </c>
       <c r="F77" s="59">
-        <v>19.308349</v>
+        <v>19.564498</v>
       </c>
       <c r="G77" s="60">
-        <v>52.578893999999998</v>
+        <v>53.238931000000001</v>
       </c>
       <c r="H77" s="61">
-        <v>28.112756000000001</v>
+        <v>27.196570999999999</v>
       </c>
       <c r="I77" s="59">
-        <v>15.805265</v>
+        <v>16.029152</v>
       </c>
       <c r="J77" s="60">
-        <v>50.512002000000003</v>
+        <v>51.263261</v>
       </c>
       <c r="K77" s="61">
-        <v>33.682732999999999</v>
+        <v>32.707586999999997</v>
       </c>
       <c r="L77" s="59">
-        <v>20.291422000000001</v>
+        <v>20.512837000000001</v>
       </c>
       <c r="M77" s="60">
-        <v>54.298518999999999</v>
+        <v>54.943452000000001</v>
       </c>
       <c r="N77" s="61">
-        <v>25.410059</v>
+        <v>24.543710999999998</v>
       </c>
       <c r="O77" s="59">
-        <v>22.412853999999999</v>
+        <v>22.627804000000001</v>
       </c>
       <c r="P77" s="60">
-        <v>56.314314000000003</v>
+        <v>56.867396999999997</v>
       </c>
       <c r="Q77" s="61">
-        <v>21.272832000000001</v>
+        <v>20.504798000000001</v>
       </c>
       <c r="R77" s="59">
-        <v>18.633431000000002</v>
+        <v>18.870142000000001</v>
       </c>
       <c r="S77" s="60">
-        <v>52.945455000000003</v>
+        <v>53.660237000000002</v>
       </c>
       <c r="T77" s="61">
-        <v>28.421113999999999</v>
+        <v>27.469622000000001</v>
       </c>
       <c r="U77" s="59">
-        <v>13.029344</v>
+        <v>13.212205000000001</v>
       </c>
       <c r="V77" s="60">
-        <v>48.164960000000001</v>
+        <v>49.129229000000002</v>
       </c>
       <c r="W77" s="61">
-        <v>38.805695999999998</v>
+        <v>37.658566</v>
       </c>
       <c r="X77" s="59">
-        <v>14.512333</v>
+        <v>14.819613</v>
       </c>
       <c r="Y77" s="60">
-        <v>49.416691</v>
+        <v>50.423144000000001</v>
       </c>
       <c r="Z77" s="61">
-        <v>36.070976000000002</v>
+        <v>34.757244</v>
       </c>
       <c r="AA77" s="59">
-        <v>11.984125000000001</v>
+        <v>12.101214000000001</v>
       </c>
       <c r="AB77" s="60">
-        <v>47.714725999999999</v>
+        <v>48.650855</v>
       </c>
       <c r="AC77" s="61">
-        <v>40.301149000000002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+        <v>39.247931999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
         <v>160</v>
       </c>
       <c r="C78" s="59">
-        <v>20.558156</v>
+        <v>20.565701000000001</v>
       </c>
       <c r="D78" s="60">
-        <v>63.807426</v>
+        <v>63.861925999999997</v>
       </c>
       <c r="E78" s="61">
-        <v>15.634418999999999</v>
+        <v>15.572373000000001</v>
       </c>
       <c r="F78" s="59">
-        <v>23.793765</v>
+        <v>23.851151999999999</v>
       </c>
       <c r="G78" s="60">
-        <v>62.24344</v>
+        <v>62.280326000000002</v>
       </c>
       <c r="H78" s="61">
-        <v>13.962795</v>
+        <v>13.868522</v>
       </c>
       <c r="I78" s="59">
-        <v>17.679029</v>
+        <v>17.646822</v>
       </c>
       <c r="J78" s="60">
-        <v>65.156940000000006</v>
+        <v>65.222528999999994</v>
       </c>
       <c r="K78" s="61">
-        <v>17.164031000000001</v>
+        <v>17.130649999999999</v>
       </c>
       <c r="L78" s="59">
-        <v>21.540264000000001</v>
+        <v>21.553604</v>
       </c>
       <c r="M78" s="60">
-        <v>63.672348999999997</v>
+        <v>63.715519</v>
       </c>
       <c r="N78" s="61">
-        <v>14.787387000000001</v>
+        <v>14.730877</v>
       </c>
       <c r="O78" s="59">
-        <v>24.454118999999999</v>
+        <v>24.503291999999998</v>
       </c>
       <c r="P78" s="60">
-        <v>61.945835000000002</v>
+        <v>61.991709999999998</v>
       </c>
       <c r="Q78" s="61">
-        <v>13.600045</v>
+        <v>13.504998000000001</v>
       </c>
       <c r="R78" s="59">
-        <v>18.701668999999999</v>
+        <v>18.681853</v>
       </c>
       <c r="S78" s="60">
-        <v>65.316210999999996</v>
+        <v>65.354371</v>
       </c>
       <c r="T78" s="61">
-        <v>15.982119000000001</v>
+        <v>15.963775999999999</v>
       </c>
       <c r="U78" s="59">
-        <v>15.320048</v>
+        <v>15.292757999999999</v>
       </c>
       <c r="V78" s="60">
-        <v>64.042068999999998</v>
+        <v>64.178511999999998</v>
       </c>
       <c r="W78" s="61">
-        <v>20.637884</v>
+        <v>20.528729999999999</v>
       </c>
       <c r="X78" s="59">
-        <v>19.100845</v>
+        <v>19.175823999999999</v>
       </c>
       <c r="Y78" s="60">
-        <v>64.097588999999999</v>
+        <v>64.145272000000006</v>
       </c>
       <c r="Z78" s="61">
-        <v>16.801566000000001</v>
+        <v>16.678903999999999</v>
       </c>
       <c r="AA78" s="59">
-        <v>13.382737000000001</v>
+        <v>13.297807000000001</v>
       </c>
       <c r="AB78" s="60">
-        <v>63.874003000000002</v>
+        <v>64.056708999999998</v>
       </c>
       <c r="AC78" s="61">
-        <v>22.743261</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>22.645482999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
         <v>161</v>
       </c>
       <c r="C79" s="63">
-        <v>20.940816000000002</v>
+        <v>21.008579999999998</v>
       </c>
       <c r="D79" s="64">
-        <v>60.731538999999998</v>
+        <v>60.773676000000002</v>
       </c>
       <c r="E79" s="65">
-        <v>18.327645</v>
+        <v>18.217744</v>
       </c>
       <c r="F79" s="63">
-        <v>23.470215</v>
+        <v>23.591846</v>
       </c>
       <c r="G79" s="64">
-        <v>59.841458000000003</v>
+        <v>59.860318999999997</v>
       </c>
       <c r="H79" s="65">
-        <v>16.688327000000001</v>
+        <v>16.547834999999999</v>
       </c>
       <c r="I79" s="63">
-        <v>18.749995999999999</v>
+        <v>18.775380999999999</v>
       </c>
       <c r="J79" s="64">
-        <v>61.545614999999998</v>
+        <v>61.593122000000001</v>
       </c>
       <c r="K79" s="65">
-        <v>19.704388999999999</v>
+        <v>19.631497</v>
       </c>
       <c r="L79" s="63">
-        <v>22.094944000000002</v>
+        <v>22.158515999999999</v>
       </c>
       <c r="M79" s="64">
-        <v>60.985686000000001</v>
+        <v>61.008783999999999</v>
       </c>
       <c r="N79" s="65">
-        <v>16.919370000000001</v>
+        <v>16.832699999999999</v>
       </c>
       <c r="O79" s="63">
-        <v>24.395278999999999</v>
+        <v>24.496024999999999</v>
       </c>
       <c r="P79" s="64">
-        <v>59.958219</v>
+        <v>59.996262999999999</v>
       </c>
       <c r="Q79" s="65">
-        <v>15.646502</v>
+        <v>15.507711</v>
       </c>
       <c r="R79" s="63">
-        <v>19.927264000000001</v>
+        <v>19.956996</v>
       </c>
       <c r="S79" s="64">
-        <v>61.999571000000003</v>
+        <v>62.002105999999998</v>
       </c>
       <c r="T79" s="65">
-        <v>18.073163999999998</v>
+        <v>18.040899</v>
       </c>
       <c r="U79" s="63">
-        <v>16.268197000000001</v>
+        <v>16.326309999999999</v>
       </c>
       <c r="V79" s="64">
-        <v>60.133356999999997</v>
+        <v>60.242263999999999</v>
       </c>
       <c r="W79" s="65">
-        <v>23.598445999999999</v>
+        <v>23.431425000000001</v>
       </c>
       <c r="X79" s="63">
-        <v>19.152922</v>
+        <v>19.296755000000001</v>
       </c>
       <c r="Y79" s="64">
-        <v>59.963869000000003</v>
+        <v>59.975301000000002</v>
       </c>
       <c r="Z79" s="65">
-        <v>20.883209999999998</v>
+        <v>20.727944000000001</v>
       </c>
       <c r="AA79" s="63">
-        <v>14.756747000000001</v>
+        <v>14.769318999999999</v>
       </c>
       <c r="AB79" s="64">
-        <v>60.138463000000002</v>
+        <v>60.282699999999998</v>
       </c>
       <c r="AC79" s="65">
-        <v>25.104790999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+        <v>24.947980999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
         <v>162</v>
@@ -8530,355 +8530,355 @@
         <v>62.106789999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
         <v>163</v>
       </c>
       <c r="C81" s="59">
-        <v>15.210469</v>
+        <v>15.198532</v>
       </c>
       <c r="D81" s="60">
-        <v>48.955221999999999</v>
+        <v>49.027304999999998</v>
       </c>
       <c r="E81" s="61">
-        <v>35.834308999999998</v>
+        <v>35.774163000000001</v>
       </c>
       <c r="F81" s="59">
-        <v>16.190109</v>
+        <v>16.182683000000001</v>
       </c>
       <c r="G81" s="60">
-        <v>51.094437999999997</v>
+        <v>51.182250000000003</v>
       </c>
       <c r="H81" s="61">
-        <v>32.715451999999999</v>
+        <v>32.635067999999997</v>
       </c>
       <c r="I81" s="59">
-        <v>14.523899</v>
+        <v>14.514848000000001</v>
       </c>
       <c r="J81" s="60">
-        <v>48.442912</v>
+        <v>48.511946000000002</v>
       </c>
       <c r="K81" s="61">
-        <v>37.033189</v>
+        <v>36.973205999999998</v>
       </c>
       <c r="L81" s="59">
-        <v>16.735305</v>
+        <v>16.656134000000002</v>
       </c>
       <c r="M81" s="60">
-        <v>51.447660999999997</v>
+        <v>51.503937999999998</v>
       </c>
       <c r="N81" s="61">
-        <v>31.817034</v>
+        <v>31.839928</v>
       </c>
       <c r="O81" s="59">
-        <v>17.656696</v>
+        <v>17.582972000000002</v>
       </c>
       <c r="P81" s="60">
-        <v>54.889498000000003</v>
+        <v>54.927869000000001</v>
       </c>
       <c r="Q81" s="61">
-        <v>27.453806</v>
+        <v>27.489159000000001</v>
       </c>
       <c r="R81" s="59">
-        <v>16.135940999999999</v>
+        <v>16.055686000000001</v>
       </c>
       <c r="S81" s="60">
-        <v>50.474741000000002</v>
+        <v>50.561988999999997</v>
       </c>
       <c r="T81" s="61">
-        <v>33.389318000000003</v>
+        <v>33.382323999999997</v>
       </c>
       <c r="U81" s="59">
-        <v>12.852573</v>
+        <v>12.973462</v>
       </c>
       <c r="V81" s="60">
-        <v>46.559787999999998</v>
+        <v>46.673481000000002</v>
       </c>
       <c r="W81" s="61">
-        <v>40.587639000000003</v>
+        <v>40.353057</v>
       </c>
       <c r="X81" s="59">
-        <v>12.850549000000001</v>
+        <v>13.013048</v>
       </c>
       <c r="Y81" s="60">
-        <v>47.055312999999998</v>
+        <v>47.153883999999998</v>
       </c>
       <c r="Z81" s="61">
-        <v>40.094138000000001</v>
+        <v>39.833067</v>
       </c>
       <c r="AA81" s="59">
-        <v>12.393685</v>
+        <v>12.497904999999999</v>
       </c>
       <c r="AB81" s="60">
-        <v>45.601602999999997</v>
+        <v>45.709034000000003</v>
       </c>
       <c r="AC81" s="61">
-        <v>42.004711999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+        <v>41.793061000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
         <v>164</v>
       </c>
       <c r="C82" s="59">
-        <v>10.736943</v>
+        <v>10.723773</v>
       </c>
       <c r="D82" s="60">
-        <v>32.666224</v>
+        <v>32.683247999999999</v>
       </c>
       <c r="E82" s="61">
-        <v>56.596832999999997</v>
+        <v>56.592979</v>
       </c>
       <c r="F82" s="59">
-        <v>10.554406</v>
+        <v>10.532893</v>
       </c>
       <c r="G82" s="60">
-        <v>30.024075</v>
+        <v>30.074998000000001</v>
       </c>
       <c r="H82" s="61">
-        <v>59.421519000000004</v>
+        <v>59.392108999999998</v>
       </c>
       <c r="I82" s="59">
-        <v>10.985776</v>
+        <v>10.989575</v>
       </c>
       <c r="J82" s="60">
-        <v>35.109444000000003</v>
+        <v>35.102082000000003</v>
       </c>
       <c r="K82" s="61">
-        <v>53.904780000000002</v>
+        <v>53.908344</v>
       </c>
       <c r="L82" s="59">
-        <v>15.988746000000001</v>
+        <v>15.980014000000001</v>
       </c>
       <c r="M82" s="60">
-        <v>41.103274999999996</v>
+        <v>41.153801999999999</v>
       </c>
       <c r="N82" s="61">
-        <v>42.907978999999997</v>
+        <v>42.866183999999997</v>
       </c>
       <c r="O82" s="59">
-        <v>16.884418</v>
+        <v>16.833739999999999</v>
       </c>
       <c r="P82" s="60">
-        <v>38.773122000000001</v>
+        <v>38.746732999999999</v>
       </c>
       <c r="Q82" s="61">
-        <v>44.342458999999998</v>
+        <v>44.419527000000002</v>
       </c>
       <c r="R82" s="59">
-        <v>15.444824000000001</v>
+        <v>15.474705999999999</v>
       </c>
       <c r="S82" s="60">
-        <v>42.424033999999999</v>
+        <v>42.531571999999997</v>
       </c>
       <c r="T82" s="61">
-        <v>42.131141</v>
+        <v>41.993721999999998</v>
       </c>
       <c r="U82" s="59">
-        <v>7.5663289999999996</v>
+        <v>7.548489</v>
       </c>
       <c r="V82" s="60">
-        <v>28.402007999999999</v>
+        <v>28.36402</v>
       </c>
       <c r="W82" s="61">
-        <v>64.031664000000006</v>
+        <v>64.087490000000003</v>
       </c>
       <c r="X82" s="59">
-        <v>7.2004109999999999</v>
+        <v>7.1577950000000001</v>
       </c>
       <c r="Y82" s="60">
-        <v>26.125330000000002</v>
+        <v>26.030321000000001</v>
       </c>
       <c r="Z82" s="61">
-        <v>66.674259000000006</v>
+        <v>66.811884000000006</v>
       </c>
       <c r="AA82" s="59">
-        <v>7.9694070000000004</v>
+        <v>7.9518529999999998</v>
       </c>
       <c r="AB82" s="60">
-        <v>30.548673999999998</v>
+        <v>30.567267999999999</v>
       </c>
       <c r="AC82" s="61">
-        <v>61.481920000000002</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>61.480879000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
         <v>165</v>
       </c>
       <c r="C83" s="63">
-        <v>18.236719000000001</v>
+        <v>18.363921000000001</v>
       </c>
       <c r="D83" s="64">
-        <v>55.029043999999999</v>
+        <v>55.159188</v>
       </c>
       <c r="E83" s="65">
-        <v>26.734238000000001</v>
+        <v>26.476890999999998</v>
       </c>
       <c r="F83" s="63">
-        <v>19.602557000000001</v>
+        <v>19.765031</v>
       </c>
       <c r="G83" s="64">
-        <v>54.136479999999999</v>
+        <v>54.226277000000003</v>
       </c>
       <c r="H83" s="65">
-        <v>26.260963</v>
+        <v>26.008692</v>
       </c>
       <c r="I83" s="63">
-        <v>17.065121999999999</v>
+        <v>17.171441999999999</v>
       </c>
       <c r="J83" s="64">
-        <v>55.642234000000002</v>
+        <v>55.784336000000003</v>
       </c>
       <c r="K83" s="65">
-        <v>27.292645</v>
+        <v>27.044222999999999</v>
       </c>
       <c r="L83" s="63">
-        <v>21.015855999999999</v>
+        <v>21.108820000000001</v>
       </c>
       <c r="M83" s="64">
-        <v>55.826720999999999</v>
+        <v>55.874259000000002</v>
       </c>
       <c r="N83" s="65">
-        <v>23.157423000000001</v>
+        <v>23.016922000000001</v>
       </c>
       <c r="O83" s="63">
-        <v>22.213607</v>
+        <v>22.344417</v>
       </c>
       <c r="P83" s="64">
-        <v>55.501385999999997</v>
+        <v>55.488270999999997</v>
       </c>
       <c r="Q83" s="65">
-        <v>22.285007</v>
+        <v>22.167311999999999</v>
       </c>
       <c r="R83" s="63">
-        <v>19.779926</v>
+        <v>19.847325999999999</v>
       </c>
       <c r="S83" s="64">
-        <v>56.234409999999997</v>
+        <v>56.316133000000001</v>
       </c>
       <c r="T83" s="65">
-        <v>23.985664</v>
+        <v>23.836542000000001</v>
       </c>
       <c r="U83" s="63">
-        <v>13.377012000000001</v>
+        <v>13.642614999999999</v>
       </c>
       <c r="V83" s="64">
-        <v>53.68806</v>
+        <v>53.924649000000002</v>
       </c>
       <c r="W83" s="65">
-        <v>32.934927999999999</v>
+        <v>32.432735999999998</v>
       </c>
       <c r="X83" s="63">
-        <v>15.471489999999999</v>
+        <v>15.812291999999999</v>
       </c>
       <c r="Y83" s="64">
-        <v>53.557138999999999</v>
+        <v>53.809057000000003</v>
       </c>
       <c r="Z83" s="65">
-        <v>30.971371000000001</v>
+        <v>30.37865</v>
       </c>
       <c r="AA83" s="63">
-        <v>12.509252999999999</v>
+        <v>12.744880999999999</v>
       </c>
       <c r="AB83" s="64">
-        <v>54.154167000000001</v>
+        <v>54.360179000000002</v>
       </c>
       <c r="AC83" s="65">
-        <v>33.336579999999998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+        <v>32.894939999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
         <v>166</v>
       </c>
       <c r="C84" s="70">
-        <v>6.2272119999999997</v>
+        <v>6.2825749999999996</v>
       </c>
       <c r="D84" s="71">
-        <v>24.345019000000001</v>
+        <v>24.381978</v>
       </c>
       <c r="E84" s="72">
-        <v>69.427768999999998</v>
+        <v>69.335447000000002</v>
       </c>
       <c r="F84" s="70">
-        <v>5.5311389999999996</v>
+        <v>5.6294149999999998</v>
       </c>
       <c r="G84" s="71">
-        <v>20.04346</v>
+        <v>20.182663999999999</v>
       </c>
       <c r="H84" s="72">
-        <v>74.425400999999994</v>
+        <v>74.187922</v>
       </c>
       <c r="I84" s="70">
-        <v>6.8950750000000003</v>
+        <v>6.9119989999999998</v>
       </c>
       <c r="J84" s="71">
-        <v>28.452760000000001</v>
+        <v>28.40155</v>
       </c>
       <c r="K84" s="72">
-        <v>64.652164999999997</v>
+        <v>64.686451000000005</v>
       </c>
       <c r="L84" s="70">
-        <v>12.907289</v>
+        <v>12.973710000000001</v>
       </c>
       <c r="M84" s="71">
-        <v>37.000168000000002</v>
+        <v>37.031481999999997</v>
       </c>
       <c r="N84" s="72">
-        <v>50.092543999999997</v>
+        <v>49.994807999999999</v>
       </c>
       <c r="O84" s="70">
-        <v>13.418286</v>
+        <v>13.437291999999999</v>
       </c>
       <c r="P84" s="71">
-        <v>33.253675000000001</v>
+        <v>33.138078</v>
       </c>
       <c r="Q84" s="72">
-        <v>53.328038999999997</v>
+        <v>53.424630000000001</v>
       </c>
       <c r="R84" s="70">
-        <v>12.609745</v>
+        <v>12.683114</v>
       </c>
       <c r="S84" s="71">
-        <v>38.510241999999998</v>
+        <v>38.628165000000003</v>
       </c>
       <c r="T84" s="72">
-        <v>48.880012999999998</v>
+        <v>48.688721000000001</v>
       </c>
       <c r="U84" s="70">
-        <v>4.2411659999999998</v>
+        <v>4.3157189999999996</v>
       </c>
       <c r="V84" s="71">
-        <v>19.994396999999999</v>
+        <v>20.336746000000002</v>
       </c>
       <c r="W84" s="72">
-        <v>75.764437000000001</v>
+        <v>75.347534999999993</v>
       </c>
       <c r="X84" s="70">
-        <v>4.0668100000000003</v>
+        <v>4.1320069999999998</v>
       </c>
       <c r="Y84" s="71">
-        <v>16.391269999999999</v>
+        <v>16.69361</v>
       </c>
       <c r="Z84" s="72">
-        <v>79.541920000000005</v>
+        <v>79.174384000000003</v>
       </c>
       <c r="AA84" s="70">
-        <v>4.5695920000000001</v>
+        <v>4.6474359999999999</v>
       </c>
       <c r="AB84" s="71">
-        <v>23.730513999999999</v>
+        <v>24.099312000000001</v>
       </c>
       <c r="AC84" s="72">
-        <v>71.699894</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+        <v>71.253252000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
         <v>167</v>
@@ -8965,7 +8965,7 @@
         <v>80.273106999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
         <v>168</v>
@@ -9052,442 +9052,442 @@
         <v>60.454144999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
         <v>169</v>
       </c>
       <c r="C87" s="59">
-        <v>15.163125000000001</v>
+        <v>15.147754000000001</v>
       </c>
       <c r="D87" s="60">
-        <v>42.354568</v>
+        <v>42.525979999999997</v>
       </c>
       <c r="E87" s="61">
-        <v>42.482306999999999</v>
+        <v>42.326267000000001</v>
       </c>
       <c r="F87" s="59">
-        <v>14.792280999999999</v>
+        <v>14.763313</v>
       </c>
       <c r="G87" s="60">
-        <v>39.945936000000003</v>
+        <v>40.143738999999997</v>
       </c>
       <c r="H87" s="61">
-        <v>45.261783000000001</v>
+        <v>45.092948</v>
       </c>
       <c r="I87" s="59">
-        <v>15.479915999999999</v>
+        <v>15.466278000000001</v>
       </c>
       <c r="J87" s="60">
-        <v>43.776223999999999</v>
+        <v>43.895294999999997</v>
       </c>
       <c r="K87" s="61">
-        <v>40.743859</v>
+        <v>40.638427</v>
       </c>
       <c r="L87" s="59">
-        <v>19.898412</v>
+        <v>19.934467000000001</v>
       </c>
       <c r="M87" s="60">
-        <v>44.869180999999998</v>
+        <v>44.921779999999998</v>
       </c>
       <c r="N87" s="61">
-        <v>35.232407000000002</v>
+        <v>35.143752999999997</v>
       </c>
       <c r="O87" s="59">
-        <v>19.606628000000001</v>
+        <v>19.671679000000001</v>
       </c>
       <c r="P87" s="60">
-        <v>43.922846999999997</v>
+        <v>43.911914000000003</v>
       </c>
       <c r="Q87" s="61">
-        <v>36.470525000000002</v>
+        <v>36.416407</v>
       </c>
       <c r="R87" s="59">
-        <v>19.866675999999998</v>
+        <v>19.892643</v>
       </c>
       <c r="S87" s="60">
-        <v>45.318612999999999</v>
+        <v>45.390362000000003</v>
       </c>
       <c r="T87" s="61">
-        <v>34.814711000000003</v>
+        <v>34.716994999999997</v>
       </c>
       <c r="U87" s="59">
-        <v>12.698446000000001</v>
+        <v>12.61261</v>
       </c>
       <c r="V87" s="60">
-        <v>39.680416000000001</v>
+        <v>39.975594000000001</v>
       </c>
       <c r="W87" s="61">
-        <v>47.621138000000002</v>
+        <v>47.411796000000002</v>
       </c>
       <c r="X87" s="59">
-        <v>13.365853</v>
+        <v>13.274255</v>
       </c>
       <c r="Y87" s="60">
-        <v>37.637594999999997</v>
+        <v>38.032957000000003</v>
       </c>
       <c r="Z87" s="61">
-        <v>48.996552000000001</v>
+        <v>48.692788</v>
       </c>
       <c r="AA87" s="59">
-        <v>12.608324</v>
+        <v>12.519696</v>
       </c>
       <c r="AB87" s="60">
-        <v>41.741957999999997</v>
+        <v>41.916580000000003</v>
       </c>
       <c r="AC87" s="61">
-        <v>45.649718</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+        <v>45.563724000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
         <v>170</v>
       </c>
       <c r="C88" s="59">
-        <v>24.193743999999999</v>
+        <v>24.50882</v>
       </c>
       <c r="D88" s="60">
-        <v>50.275590999999999</v>
+        <v>50.225988999999998</v>
       </c>
       <c r="E88" s="61">
-        <v>25.530664999999999</v>
+        <v>25.265191000000002</v>
       </c>
       <c r="F88" s="59">
-        <v>27.086233</v>
+        <v>27.52683</v>
       </c>
       <c r="G88" s="60">
-        <v>49.919843</v>
+        <v>49.746405000000003</v>
       </c>
       <c r="H88" s="61">
-        <v>22.993924</v>
+        <v>22.726765</v>
       </c>
       <c r="I88" s="59">
-        <v>21.958879</v>
+        <v>22.147822000000001</v>
       </c>
       <c r="J88" s="60">
-        <v>50.480018000000001</v>
+        <v>50.541970999999997</v>
       </c>
       <c r="K88" s="61">
-        <v>27.561104</v>
+        <v>27.310206999999998</v>
       </c>
       <c r="L88" s="59">
-        <v>23.393702999999999</v>
+        <v>23.771788000000001</v>
       </c>
       <c r="M88" s="60">
-        <v>50.949865000000003</v>
+        <v>50.901125999999998</v>
       </c>
       <c r="N88" s="61">
-        <v>25.656431999999999</v>
+        <v>25.327086000000001</v>
       </c>
       <c r="O88" s="59">
-        <v>26.822814999999999</v>
+        <v>27.299848999999998</v>
       </c>
       <c r="P88" s="60">
-        <v>50.291057000000002</v>
+        <v>50.119039999999998</v>
       </c>
       <c r="Q88" s="61">
-        <v>22.886127999999999</v>
+        <v>22.581112000000001</v>
       </c>
       <c r="R88" s="59">
-        <v>20.803957</v>
+        <v>21.076184999999999</v>
       </c>
       <c r="S88" s="60">
-        <v>51.331167000000001</v>
+        <v>51.398997999999999</v>
       </c>
       <c r="T88" s="61">
-        <v>27.864875999999999</v>
+        <v>27.524816999999999</v>
       </c>
       <c r="U88" s="59">
-        <v>18.307117000000002</v>
+        <v>18.385605999999999</v>
       </c>
       <c r="V88" s="60">
-        <v>45.855702000000001</v>
+        <v>45.928609999999999</v>
       </c>
       <c r="W88" s="61">
-        <v>35.837181000000001</v>
+        <v>35.685783999999998</v>
       </c>
       <c r="X88" s="59">
-        <v>19.208628999999998</v>
+        <v>19.445836</v>
       </c>
       <c r="Y88" s="60">
-        <v>46.242969000000002</v>
+        <v>46.259647000000001</v>
       </c>
       <c r="Z88" s="61">
-        <v>34.548402000000003</v>
+        <v>34.294516999999999</v>
       </c>
       <c r="AA88" s="59">
-        <v>18.319904000000001</v>
+        <v>18.227582999999999</v>
       </c>
       <c r="AB88" s="60">
-        <v>46.189104999999998</v>
+        <v>46.329298000000001</v>
       </c>
       <c r="AC88" s="61">
-        <v>35.490991000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+        <v>35.443119000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
         <v>171</v>
       </c>
       <c r="C89" s="59">
-        <v>16.865251000000001</v>
+        <v>17.169779999999999</v>
       </c>
       <c r="D89" s="60">
-        <v>53.645794000000002</v>
+        <v>53.660905999999997</v>
       </c>
       <c r="E89" s="61">
-        <v>29.488954</v>
+        <v>29.169315000000001</v>
       </c>
       <c r="F89" s="59">
-        <v>18.035502999999999</v>
+        <v>18.396013</v>
       </c>
       <c r="G89" s="60">
-        <v>54.473272000000001</v>
+        <v>54.369458999999999</v>
       </c>
       <c r="H89" s="61">
-        <v>27.491225</v>
+        <v>27.234528000000001</v>
       </c>
       <c r="I89" s="59">
-        <v>15.893781000000001</v>
+        <v>16.182549999999999</v>
       </c>
       <c r="J89" s="60">
-        <v>53.398518000000003</v>
+        <v>53.483364000000002</v>
       </c>
       <c r="K89" s="61">
-        <v>30.707701</v>
+        <v>30.334085000000002</v>
       </c>
       <c r="L89" s="59">
-        <v>20.490942</v>
+        <v>20.618957000000002</v>
       </c>
       <c r="M89" s="60">
-        <v>54.521659</v>
+        <v>54.388998999999998</v>
       </c>
       <c r="N89" s="61">
-        <v>24.987399</v>
+        <v>24.992044</v>
       </c>
       <c r="O89" s="59">
-        <v>21.578585</v>
+        <v>21.783241</v>
       </c>
       <c r="P89" s="60">
-        <v>56.194367999999997</v>
+        <v>55.896704</v>
       </c>
       <c r="Q89" s="61">
-        <v>22.227046999999999</v>
+        <v>22.320055</v>
       </c>
       <c r="R89" s="59">
-        <v>19.433724999999999</v>
+        <v>19.516480999999999</v>
       </c>
       <c r="S89" s="60">
-        <v>53.963000000000001</v>
+        <v>53.953378000000001</v>
       </c>
       <c r="T89" s="61">
-        <v>26.603275</v>
+        <v>26.530141</v>
       </c>
       <c r="U89" s="59">
-        <v>11.061742000000001</v>
+        <v>11.849392999999999</v>
       </c>
       <c r="V89" s="60">
-        <v>51.175626999999999</v>
+        <v>51.334777000000003</v>
       </c>
       <c r="W89" s="61">
-        <v>37.762630999999999</v>
+        <v>36.815829999999998</v>
       </c>
       <c r="X89" s="59">
-        <v>12.186316</v>
+        <v>13.069516</v>
       </c>
       <c r="Y89" s="60">
-        <v>51.063479000000001</v>
+        <v>51.267294</v>
       </c>
       <c r="Z89" s="61">
-        <v>36.750205000000001</v>
+        <v>35.66319</v>
       </c>
       <c r="AA89" s="59">
-        <v>10.531431</v>
+        <v>11.310237000000001</v>
       </c>
       <c r="AB89" s="60">
-        <v>51.359701999999999</v>
+        <v>51.480218000000001</v>
       </c>
       <c r="AC89" s="61">
-        <v>38.108866999999996</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>37.209544999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
         <v>172</v>
       </c>
       <c r="C90" s="63">
-        <v>20.067744999999999</v>
+        <v>20.043464</v>
       </c>
       <c r="D90" s="64">
-        <v>60.590679000000002</v>
+        <v>60.785103999999997</v>
       </c>
       <c r="E90" s="65">
-        <v>19.341576</v>
+        <v>19.171433</v>
       </c>
       <c r="F90" s="63">
-        <v>22.221838000000002</v>
+        <v>22.202164</v>
       </c>
       <c r="G90" s="64">
-        <v>59.720678999999997</v>
+        <v>59.922398999999999</v>
       </c>
       <c r="H90" s="65">
-        <v>18.057483000000001</v>
+        <v>17.875437000000002</v>
       </c>
       <c r="I90" s="63">
-        <v>18.265498999999998</v>
+        <v>18.246614000000001</v>
       </c>
       <c r="J90" s="64">
-        <v>61.336312</v>
+        <v>61.521268999999997</v>
       </c>
       <c r="K90" s="65">
-        <v>20.398188999999999</v>
+        <v>20.232116999999999</v>
       </c>
       <c r="L90" s="63">
-        <v>21.062045999999999</v>
+        <v>21.060625000000002</v>
       </c>
       <c r="M90" s="64">
-        <v>60.590919999999997</v>
+        <v>60.803482000000002</v>
       </c>
       <c r="N90" s="65">
-        <v>18.347034000000001</v>
+        <v>18.135892999999999</v>
       </c>
       <c r="O90" s="63">
-        <v>22.939124</v>
+        <v>22.918927</v>
       </c>
       <c r="P90" s="64">
-        <v>59.595109999999998</v>
+        <v>59.827325999999999</v>
       </c>
       <c r="Q90" s="65">
-        <v>17.465765999999999</v>
+        <v>17.253747000000001</v>
       </c>
       <c r="R90" s="63">
-        <v>19.36722</v>
+        <v>19.388791999999999</v>
       </c>
       <c r="S90" s="64">
-        <v>61.497656999999997</v>
+        <v>61.693393</v>
       </c>
       <c r="T90" s="65">
-        <v>19.135123</v>
+        <v>18.917815000000001</v>
       </c>
       <c r="U90" s="63">
-        <v>15.366906999999999</v>
+        <v>15.324681</v>
       </c>
       <c r="V90" s="64">
-        <v>60.513626000000002</v>
+        <v>60.628397</v>
       </c>
       <c r="W90" s="65">
-        <v>24.119467</v>
+        <v>24.046921999999999</v>
       </c>
       <c r="X90" s="63">
-        <v>18.324165000000001</v>
+        <v>18.344459000000001</v>
       </c>
       <c r="Y90" s="64">
-        <v>61.260133000000003</v>
+        <v>61.297342999999998</v>
       </c>
       <c r="Z90" s="65">
-        <v>20.415702</v>
+        <v>20.358198000000002</v>
       </c>
       <c r="AA90" s="63">
-        <v>14.030481</v>
+        <v>13.947749999999999</v>
       </c>
       <c r="AB90" s="64">
-        <v>60.332489000000002</v>
+        <v>60.491717000000001</v>
       </c>
       <c r="AC90" s="65">
-        <v>25.637029999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+        <v>25.560533</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
         <v>173</v>
       </c>
       <c r="C91" s="70">
-        <v>6.6212759999999999</v>
+        <v>6.6535710000000003</v>
       </c>
       <c r="D91" s="71">
-        <v>24.798234000000001</v>
+        <v>24.819794000000002</v>
       </c>
       <c r="E91" s="72">
-        <v>68.580489</v>
+        <v>68.526634999999999</v>
       </c>
       <c r="F91" s="70">
-        <v>6.017487</v>
+        <v>6.0748150000000001</v>
       </c>
       <c r="G91" s="71">
-        <v>21.019859</v>
+        <v>21.101061000000001</v>
       </c>
       <c r="H91" s="72">
-        <v>72.962654000000001</v>
+        <v>72.824123999999998</v>
       </c>
       <c r="I91" s="70">
-        <v>7.1596029999999997</v>
+        <v>7.1694760000000004</v>
       </c>
       <c r="J91" s="71">
-        <v>28.291407</v>
+        <v>28.261534000000001</v>
       </c>
       <c r="K91" s="72">
-        <v>64.548990000000003</v>
+        <v>64.568990999999997</v>
       </c>
       <c r="L91" s="70">
-        <v>13.621522000000001</v>
+        <v>13.660268</v>
       </c>
       <c r="M91" s="71">
-        <v>37.950682999999998</v>
+        <v>37.96895</v>
       </c>
       <c r="N91" s="72">
-        <v>48.427793999999999</v>
+        <v>48.370781999999998</v>
       </c>
       <c r="O91" s="70">
-        <v>14.876177</v>
+        <v>14.887264</v>
       </c>
       <c r="P91" s="71">
-        <v>35.000816999999998</v>
+        <v>34.933385000000001</v>
       </c>
       <c r="Q91" s="72">
-        <v>50.123005999999997</v>
+        <v>50.179350999999997</v>
       </c>
       <c r="R91" s="70">
-        <v>12.968424000000001</v>
+        <v>13.011222999999999</v>
       </c>
       <c r="S91" s="71">
-        <v>39.303497</v>
+        <v>39.372284999999998</v>
       </c>
       <c r="T91" s="72">
-        <v>47.728079000000001</v>
+        <v>47.616492000000001</v>
       </c>
       <c r="U91" s="70">
-        <v>4.1141240000000003</v>
+        <v>4.1576129999999996</v>
       </c>
       <c r="V91" s="71">
-        <v>19.934716000000002</v>
+        <v>20.134419999999999</v>
       </c>
       <c r="W91" s="72">
-        <v>75.951159000000004</v>
+        <v>75.707965999999999</v>
       </c>
       <c r="X91" s="70">
-        <v>3.7043349999999999</v>
+        <v>3.7423670000000002</v>
       </c>
       <c r="Y91" s="71">
-        <v>17.062771000000001</v>
+        <v>17.239135999999998</v>
       </c>
       <c r="Z91" s="72">
-        <v>79.232893000000004</v>
+        <v>79.018496999999996</v>
       </c>
       <c r="AA91" s="70">
-        <v>4.5717100000000004</v>
+        <v>4.6171189999999998</v>
       </c>
       <c r="AB91" s="71">
-        <v>22.973796</v>
+        <v>23.188928000000001</v>
       </c>
       <c r="AC91" s="72">
-        <v>72.454493999999997</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+        <v>72.193952999999993</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
         <v>174</v>
@@ -9574,442 +9574,442 @@
         <v>50.405313</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
         <v>175</v>
       </c>
       <c r="C93" s="59">
-        <v>12.098198999999999</v>
+        <v>11.679949000000001</v>
       </c>
       <c r="D93" s="60">
-        <v>36.712128</v>
+        <v>36.761102000000001</v>
       </c>
       <c r="E93" s="61">
-        <v>51.189672000000002</v>
+        <v>51.558948000000001</v>
       </c>
       <c r="F93" s="59">
-        <v>11.998767000000001</v>
+        <v>11.346646</v>
       </c>
       <c r="G93" s="60">
-        <v>35.223723999999997</v>
+        <v>35.320079</v>
       </c>
       <c r="H93" s="61">
-        <v>52.777509000000002</v>
+        <v>53.333275</v>
       </c>
       <c r="I93" s="59">
-        <v>12.330607000000001</v>
+        <v>12.187950000000001</v>
       </c>
       <c r="J93" s="60">
-        <v>38.143101000000001</v>
+        <v>38.177115000000001</v>
       </c>
       <c r="K93" s="61">
-        <v>49.526293000000003</v>
+        <v>49.634934999999999</v>
       </c>
       <c r="L93" s="59">
-        <v>13.504956999999999</v>
+        <v>13.045529</v>
       </c>
       <c r="M93" s="60">
-        <v>38.945264000000002</v>
+        <v>39.207849000000003</v>
       </c>
       <c r="N93" s="61">
-        <v>47.549779000000001</v>
+        <v>47.746622000000002</v>
       </c>
       <c r="O93" s="59">
-        <v>15.298913000000001</v>
+        <v>14.632472999999999</v>
       </c>
       <c r="P93" s="60">
-        <v>37.107323999999998</v>
+        <v>37.333392000000003</v>
       </c>
       <c r="Q93" s="61">
-        <v>47.593763000000003</v>
+        <v>48.034134999999999</v>
       </c>
       <c r="R93" s="59">
-        <v>12.839009000000001</v>
+        <v>12.665616999999999</v>
       </c>
       <c r="S93" s="60">
-        <v>40.029094000000001</v>
+        <v>40.353943999999998</v>
       </c>
       <c r="T93" s="61">
-        <v>47.131897000000002</v>
+        <v>46.980437999999999</v>
       </c>
       <c r="U93" s="59">
-        <v>8.4153409999999997</v>
+        <v>8.0820240000000005</v>
       </c>
       <c r="V93" s="60">
-        <v>35.632658999999997</v>
+        <v>34.557312000000003</v>
       </c>
       <c r="W93" s="61">
-        <v>55.951999000000001</v>
+        <v>57.360663000000002</v>
       </c>
       <c r="X93" s="59">
-        <v>7.2550420000000004</v>
+        <v>6.6890830000000001</v>
       </c>
       <c r="Y93" s="60">
-        <v>34.536766</v>
+        <v>33.250135999999998</v>
       </c>
       <c r="Z93" s="61">
-        <v>58.208190999999999</v>
+        <v>60.060780999999999</v>
       </c>
       <c r="AA93" s="59">
-        <v>9.7318809999999996</v>
+        <v>9.5064709999999994</v>
       </c>
       <c r="AB93" s="60">
-        <v>36.574908000000001</v>
+        <v>35.732483999999999</v>
       </c>
       <c r="AC93" s="61">
-        <v>53.693210000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+        <v>54.761045000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
         <v>176</v>
       </c>
       <c r="C94" s="59">
-        <v>14.897078</v>
+        <v>15.400046</v>
       </c>
       <c r="D94" s="60">
-        <v>48.146956000000003</v>
+        <v>47.994700000000002</v>
       </c>
       <c r="E94" s="61">
-        <v>36.955965999999997</v>
+        <v>36.605254000000002</v>
       </c>
       <c r="F94" s="59">
-        <v>15.491668000000001</v>
+        <v>16.004625999999998</v>
       </c>
       <c r="G94" s="60">
-        <v>49.375523000000001</v>
+        <v>49.081496000000001</v>
       </c>
       <c r="H94" s="61">
-        <v>35.132809000000002</v>
+        <v>34.913877999999997</v>
       </c>
       <c r="I94" s="59">
-        <v>14.455925000000001</v>
+        <v>14.999684</v>
       </c>
       <c r="J94" s="60">
-        <v>47.315840000000001</v>
+        <v>47.237278000000003</v>
       </c>
       <c r="K94" s="61">
-        <v>38.228234</v>
+        <v>37.763038000000002</v>
       </c>
       <c r="L94" s="59">
-        <v>17.246928</v>
+        <v>17.594750999999999</v>
       </c>
       <c r="M94" s="60">
-        <v>48.401541000000002</v>
+        <v>48.019700999999998</v>
       </c>
       <c r="N94" s="61">
-        <v>34.351531000000001</v>
+        <v>34.385548</v>
       </c>
       <c r="O94" s="59">
-        <v>17.423591999999999</v>
+        <v>17.79279</v>
       </c>
       <c r="P94" s="60">
-        <v>50.135883</v>
+        <v>49.579106000000003</v>
       </c>
       <c r="Q94" s="61">
-        <v>32.440525000000001</v>
+        <v>32.628104</v>
       </c>
       <c r="R94" s="59">
-        <v>16.972477999999999</v>
+        <v>17.317623000000001</v>
       </c>
       <c r="S94" s="60">
-        <v>47.179937000000002</v>
+        <v>46.919074999999999</v>
       </c>
       <c r="T94" s="61">
-        <v>35.847583999999998</v>
+        <v>35.763302000000003</v>
       </c>
       <c r="U94" s="59">
-        <v>9.9535669999999996</v>
+        <v>11.033829000000001</v>
       </c>
       <c r="V94" s="60">
-        <v>47.430875</v>
+        <v>47.401347999999999</v>
       </c>
       <c r="W94" s="61">
-        <v>42.615558</v>
+        <v>41.564822999999997</v>
       </c>
       <c r="X94" s="59">
-        <v>11.716409000000001</v>
+        <v>12.909424</v>
       </c>
       <c r="Y94" s="60">
-        <v>49.41778</v>
+        <v>49.426937000000002</v>
       </c>
       <c r="Z94" s="61">
-        <v>38.865811000000001</v>
+        <v>37.663640000000001</v>
       </c>
       <c r="AA94" s="59">
-        <v>9.6745619999999999</v>
+        <v>10.785745</v>
       </c>
       <c r="AB94" s="60">
-        <v>47.419035000000001</v>
+        <v>47.353912999999999</v>
       </c>
       <c r="AC94" s="61">
-        <v>42.906402999999997</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+        <v>41.860342000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
         <v>177</v>
       </c>
       <c r="C95" s="59">
-        <v>11.210527000000001</v>
+        <v>11.275117</v>
       </c>
       <c r="D95" s="60">
-        <v>33.636783000000001</v>
+        <v>33.679901999999998</v>
       </c>
       <c r="E95" s="61">
-        <v>55.152690999999997</v>
+        <v>55.044981</v>
       </c>
       <c r="F95" s="59">
-        <v>11.135761</v>
+        <v>11.250416</v>
       </c>
       <c r="G95" s="60">
-        <v>31.205079000000001</v>
+        <v>31.367484000000001</v>
       </c>
       <c r="H95" s="61">
-        <v>57.65916</v>
+        <v>57.382100000000001</v>
       </c>
       <c r="I95" s="59">
-        <v>11.279795</v>
+        <v>11.29954</v>
       </c>
       <c r="J95" s="60">
-        <v>35.696514999999998</v>
+        <v>35.636769999999999</v>
       </c>
       <c r="K95" s="61">
-        <v>53.023688999999997</v>
+        <v>53.063690000000001</v>
       </c>
       <c r="L95" s="59">
-        <v>18.270344999999999</v>
+        <v>18.347836000000001</v>
       </c>
       <c r="M95" s="60">
-        <v>43.513319000000003</v>
+        <v>43.549852999999999</v>
       </c>
       <c r="N95" s="61">
-        <v>38.216335999999998</v>
+        <v>38.102311</v>
       </c>
       <c r="O95" s="59">
-        <v>19.233930999999998</v>
+        <v>19.256105999999999</v>
       </c>
       <c r="P95" s="60">
-        <v>39.796869000000001</v>
+        <v>39.662005000000001</v>
       </c>
       <c r="Q95" s="61">
-        <v>40.969200000000001</v>
+        <v>41.081888999999997</v>
       </c>
       <c r="R95" s="59">
-        <v>17.353237</v>
+        <v>17.438834</v>
       </c>
       <c r="S95" s="60">
-        <v>45.093294</v>
+        <v>45.230871999999998</v>
       </c>
       <c r="T95" s="61">
-        <v>37.553468000000002</v>
+        <v>37.330294000000002</v>
       </c>
       <c r="U95" s="59">
-        <v>7.663189</v>
+        <v>7.7501670000000003</v>
       </c>
       <c r="V95" s="60">
-        <v>28.567378999999999</v>
+        <v>28.966787</v>
       </c>
       <c r="W95" s="61">
-        <v>63.769432999999999</v>
+        <v>63.283047000000003</v>
       </c>
       <c r="X95" s="59">
-        <v>7.0400330000000002</v>
+        <v>7.1160959999999998</v>
       </c>
       <c r="Y95" s="60">
-        <v>27.222975000000002</v>
+        <v>27.575704999999999</v>
       </c>
       <c r="Z95" s="61">
-        <v>65.736992000000001</v>
+        <v>65.308199999999999</v>
       </c>
       <c r="AA95" s="59">
-        <v>8.2212300000000003</v>
+        <v>8.3120480000000008</v>
       </c>
       <c r="AB95" s="60">
-        <v>30.031611000000002</v>
+        <v>30.461874999999999</v>
       </c>
       <c r="AC95" s="61">
-        <v>61.747159000000003</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>61.226076999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
         <v>178</v>
       </c>
       <c r="C96" s="63">
-        <v>15.771281</v>
+        <v>15.581367999999999</v>
       </c>
       <c r="D96" s="64">
-        <v>50.419189000000003</v>
+        <v>50.533436999999999</v>
       </c>
       <c r="E96" s="65">
-        <v>33.809530000000002</v>
+        <v>33.885195000000003</v>
       </c>
       <c r="F96" s="63">
-        <v>16.251256999999999</v>
+        <v>16.116192999999999</v>
       </c>
       <c r="G96" s="64">
-        <v>46.855604999999997</v>
+        <v>46.975977999999998</v>
       </c>
       <c r="H96" s="65">
-        <v>36.893138</v>
+        <v>36.907828000000002</v>
       </c>
       <c r="I96" s="63">
-        <v>15.640991</v>
+        <v>15.394902999999999</v>
       </c>
       <c r="J96" s="64">
-        <v>52.385677999999999</v>
+        <v>52.477100999999998</v>
       </c>
       <c r="K96" s="65">
-        <v>31.973331999999999</v>
+        <v>32.127997000000001</v>
       </c>
       <c r="L96" s="63">
-        <v>21.791094000000001</v>
+        <v>21.458386000000001</v>
       </c>
       <c r="M96" s="64">
-        <v>53.601525000000002</v>
+        <v>53.711298999999997</v>
       </c>
       <c r="N96" s="65">
-        <v>24.607381</v>
+        <v>24.830314999999999</v>
       </c>
       <c r="O96" s="63">
-        <v>22.094286</v>
+        <v>21.766779</v>
       </c>
       <c r="P96" s="64">
-        <v>52.664220999999998</v>
+        <v>52.765312999999999</v>
       </c>
       <c r="Q96" s="65">
-        <v>25.241492999999998</v>
+        <v>25.467908000000001</v>
       </c>
       <c r="R96" s="63">
-        <v>21.466526000000002</v>
+        <v>21.135660000000001</v>
       </c>
       <c r="S96" s="64">
-        <v>54.530656</v>
+        <v>54.693738000000003</v>
       </c>
       <c r="T96" s="65">
-        <v>24.002818000000001</v>
+        <v>24.170601999999999</v>
       </c>
       <c r="U96" s="63">
-        <v>12.184664</v>
+        <v>12.331136000000001</v>
       </c>
       <c r="V96" s="64">
-        <v>48.168512</v>
+        <v>48.385807</v>
       </c>
       <c r="W96" s="65">
-        <v>39.646824000000002</v>
+        <v>39.283056999999999</v>
       </c>
       <c r="X96" s="63">
-        <v>13.619977</v>
+        <v>14.028290999999999</v>
       </c>
       <c r="Y96" s="64">
-        <v>44.646386</v>
+        <v>44.973536000000003</v>
       </c>
       <c r="Z96" s="65">
-        <v>41.733637000000002</v>
+        <v>40.998173000000001</v>
       </c>
       <c r="AA96" s="63">
-        <v>11.613965</v>
+        <v>11.629318</v>
       </c>
       <c r="AB96" s="64">
-        <v>50.298336999999997</v>
+        <v>50.400016999999998</v>
       </c>
       <c r="AC96" s="65">
-        <v>38.087698000000003</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+        <v>37.970664999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
         <v>179</v>
       </c>
       <c r="C97" s="70">
-        <v>8.6778220000000008</v>
+        <v>8.7076320000000003</v>
       </c>
       <c r="D97" s="71">
-        <v>27.580622000000002</v>
+        <v>27.600522999999999</v>
       </c>
       <c r="E97" s="72">
-        <v>63.741557</v>
+        <v>63.691845000000001</v>
       </c>
       <c r="F97" s="70">
-        <v>7.7404029999999997</v>
+        <v>7.7933209999999997</v>
       </c>
       <c r="G97" s="71">
-        <v>23.748294999999999</v>
+        <v>23.823250999999999</v>
       </c>
       <c r="H97" s="72">
-        <v>68.511302000000001</v>
+        <v>68.383427999999995</v>
       </c>
       <c r="I97" s="70">
-        <v>9.4715380000000007</v>
+        <v>9.4806509999999999</v>
       </c>
       <c r="J97" s="71">
-        <v>31.051907</v>
+        <v>31.024332000000001</v>
       </c>
       <c r="K97" s="72">
-        <v>59.476554999999998</v>
+        <v>59.495016999999997</v>
       </c>
       <c r="L97" s="70">
-        <v>15.742609</v>
+        <v>15.778373999999999</v>
       </c>
       <c r="M97" s="71">
-        <v>38.589326999999997</v>
+        <v>38.606188000000003</v>
       </c>
       <c r="N97" s="72">
-        <v>45.668064999999999</v>
+        <v>45.615437999999997</v>
       </c>
       <c r="O97" s="70">
-        <v>16.323899000000001</v>
+        <v>16.334133000000001</v>
       </c>
       <c r="P97" s="71">
-        <v>35.233428000000004</v>
+        <v>35.171182999999999</v>
       </c>
       <c r="Q97" s="72">
-        <v>48.442672999999999</v>
+        <v>48.494683000000002</v>
       </c>
       <c r="R97" s="70">
-        <v>15.449484999999999</v>
+        <v>15.488991</v>
       </c>
       <c r="S97" s="71">
-        <v>40.175446999999998</v>
+        <v>40.238943999999996</v>
       </c>
       <c r="T97" s="72">
-        <v>44.375067999999999</v>
+        <v>44.272064999999998</v>
       </c>
       <c r="U97" s="70">
-        <v>6.1706139999999996</v>
+        <v>6.2107580000000002</v>
       </c>
       <c r="V97" s="71">
-        <v>24.000121</v>
+        <v>24.184463000000001</v>
       </c>
       <c r="W97" s="72">
-        <v>69.829265000000007</v>
+        <v>69.604778999999994</v>
       </c>
       <c r="X97" s="70">
-        <v>5.6162450000000002</v>
+        <v>5.651351</v>
       </c>
       <c r="Y97" s="71">
-        <v>20.915265000000002</v>
+        <v>21.078063</v>
       </c>
       <c r="Z97" s="72">
-        <v>73.468491</v>
+        <v>73.270585999999994</v>
       </c>
       <c r="AA97" s="70">
-        <v>6.7567779999999997</v>
+        <v>6.7986940000000002</v>
       </c>
       <c r="AB97" s="71">
-        <v>27.111377999999998</v>
+        <v>27.309961000000001</v>
       </c>
       <c r="AC97" s="72">
-        <v>66.131844000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>65.891345000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
         <v>180</v>
@@ -10096,7 +10096,7 @@
         <v>49.863850999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
       <c r="C99" s="67"/>
@@ -10127,7 +10127,7 @@
       <c r="AB99" s="67"/>
       <c r="AC99" s="67"/>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>181</v>
       </c>
@@ -10159,7 +10159,7 @@
       <c r="AB100" s="76"/>
       <c r="AC100" s="76"/>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>182</v>
       </c>
@@ -10191,7 +10191,7 @@
       <c r="AB101" s="76"/>
       <c r="AC101" s="76"/>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>183</v>
       </c>
@@ -10223,7 +10223,7 @@
       <c r="AB102" s="76"/>
       <c r="AC102" s="76"/>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>184</v>
       </c>
@@ -10255,7 +10255,7 @@
       <c r="AB103" s="76"/>
       <c r="AC103" s="76"/>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>185</v>
       </c>
@@ -10287,7 +10287,7 @@
       <c r="AB104" s="76"/>
       <c r="AC104" s="76"/>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C105" s="76"/>
       <c r="D105" s="76"/>
       <c r="E105" s="76"/>
@@ -10316,7 +10316,7 @@
       <c r="AB105" s="76"/>
       <c r="AC105" s="76"/>
     </row>
-    <row r="106" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="77"/>
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
@@ -10346,7 +10346,7 @@
       <c r="AB106" s="76"/>
       <c r="AC106" s="76"/>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B107" s="78" t="s">
         <v>186</v>
       </c>
@@ -10378,7 +10378,7 @@
       <c r="AB107" s="76"/>
       <c r="AC107" s="76"/>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
@@ -10408,7 +10408,7 @@
       <c r="AB108" s="76"/>
       <c r="AC108" s="76"/>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B109" s="81" t="s">
         <v>188</v>
       </c>
@@ -10440,7 +10440,7 @@
       <c r="AB109" s="76"/>
       <c r="AC109" s="76"/>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B110" s="81" t="s">
         <v>189</v>
       </c>
@@ -10472,7 +10472,7 @@
       <c r="AB110" s="76"/>
       <c r="AC110" s="76"/>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B111" s="81" t="s">
         <v>190</v>
       </c>
@@ -10504,7 +10504,7 @@
       <c r="AB111" s="76"/>
       <c r="AC111" s="76"/>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>187</v>
       </c>
@@ -10536,7 +10536,7 @@
       <c r="AB112" s="76"/>
       <c r="AC112" s="76"/>
     </row>
-    <row r="113" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B113" s="79"/>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
@@ -10568,12 +10568,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{CDD9E5E3-CBF0-4248-AB35-073ED9B2E322}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{72BE3E4A-AA88-44B6-8A2D-3468862A4102}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{4793185D-8B72-4283-B1BF-B892D0B48D3A}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{C410837C-7636-4CD4-92AC-5343E6824C79}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{4FFC8822-1A44-4979-A19D-33E50712E19A}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{1ADF9972-E272-4149-8AAC-487C986E7BFD}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{8BB24F8C-3BBF-4E1B-AB93-09C70020D6FF}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{BCA1A17E-1110-4881-B450-4063CD39768A}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{0154A810-EAFC-4752-BCF8-36625D248F86}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{AFF713F7-92A0-4A0D-B166-D87EDE940664}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{7FC70C1B-9E7F-4763-9C5E-D2F830B7CC8C}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{6D77B581-C2BA-4195-B661-FB59E9FA9787}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/DDAf_2025_Tableau_annexe_Tab36.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab36.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81807D4F-1E2C-4336-8803-B9A5E8C63753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04A2E938-6E07-4655-A557-7BAE875AD0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{D7243962-2224-410D-B4FA-1D6D3D30B8B6}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{2E27B735-C754-48E4-9321-159B87260982}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab36" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab36'!$A$2:$I$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab36'!$A$1:$I$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab36'!$A$2:$J$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab36'!$A$1:$J$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,102 +37,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="191">
-  <si>
-    <t>Table 36: Education mismatch</t>
-  </si>
-  <si>
-    <t>CntryCode</t>
-  </si>
-  <si>
-    <t>Country (Resource-rich countries are shaded)</t>
-  </si>
-  <si>
-    <t>Percentage of workers with education above requirements - both sexes, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of workers with education matching requirements - both sexes, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of workers with education under requirements - both sexes, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of workers with education above requirements - females, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of workers with education matching requirements - females, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of workers with education under requirements - females, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of workers with education above requirements - males, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of workers with education matching requirements - males, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of workers with education under requirements - males, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees with education above requirements - both sexes, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees with education matching requirements - both sexes, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees with education under requirements - both sexes, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees with education above requirements - females, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees with education matching requirements - females, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees with education under requirements - females, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees with education above requirements - males, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees with education matching requirements - males, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of employees with education under requirements - males, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of self-employed workers with education above requirements - both sexes, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of self-employed workers with education matching requirements - both sexes, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of self-employed workers with education under requirements - both sexes, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of self-employed workers with education above requirements - females, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of self-employed workers with education matching requirements - females, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of self-employed workers with education under requirements - females, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of self-employed workers with education above requirements - males, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of self-employed workers with education matching requirements - males, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Percentage of self-employed workers with education under requirements - males, most recent measure 2015-24</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="193">
+  <si>
+    <t>Tableau 36 : Inadéquation de l’éducation</t>
+  </si>
+  <si>
+    <t>ISO3 Code</t>
+  </si>
+  <si>
+    <t>Pays (pays riches en ressources ombrés)</t>
+  </si>
+  <si>
+    <t>Pourcentage de travailleurs ayant un niveau d'éducation supérieur aux exigences professionnelles - les deux sexes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage de travailleurs dont l'éducation correspond aux exigences professionnelles - les deux sexes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage de travailleurs ayant un niveau d'éducation inférieur aux exigences professionnelles - les deux sexes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage de travailleurs ayant un niveau d'éducation supérieur aux exigences professionnelles - femmes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage de travailleurs dont l'éducation correspond aux exigences professionnelles - femmes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage de travailleurs ayant un niveau d'éducation inférieur aux exigences professionnelles - femmes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage de travailleurs ayant un niveau d'éducation supérieur aux exigences professionnelles - hommes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage de travailleurs dont l'éducation correspond aux exigences professionnelles - hommes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage de travailleurs ayant un niveau d'éducation inférieur aux exigences professionnelles - hommes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage d'employés ayant un niveau d'éducation supérieur aux exigences professionnelles - hommes et femmes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage d'employés dont l'éducation correspond aux exigences professionnelles - les deux sexes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage de salariés ayant un niveau d'études inférieur aux exigences professionnelles - hommes et femmes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage d'employés ayant un niveau d'éducation supérieur aux exigences de la profession - femmes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage d'employés dont l'éducation correspond aux exigences professionnelles - femmes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage de salariés ayant un niveau d'éducation inférieur aux exigences professionnelles - femmes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage d'employés ayant un niveau d'éducation supérieur aux exigences professionnelles - hommes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage d'employés dont l'éducation correspond aux exigences professionnelles - hommes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage de salariés ayant un niveau d'éducation inférieur aux exigences professionnelles - hommes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage de travailleurs indépendants ayant un niveau d'éducation supérieur aux exigences professionnelles - les deux sexes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage de travailleurs indépendants ayant un niveau d'études correspondant aux exigences professionnelles - les deux sexes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage de travailleurs indépendants ayant un niveau d'études inférieur aux exigences professionnelles - les deux sexes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage de travailleurs indépendants ayant un niveau d'éducation supérieur aux exigences professionnelles - femmes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage de travailleurs indépendants ayant un niveau d'études correspondant aux exigences professionnelles - femmes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage de travailleurs indépendants ayant un niveau d'éducation inférieur aux exigences professionnelles - femmes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage de travailleurs indépendants ayant un niveau d'éducation supérieur aux exigences professionnelles - hommes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage de travailleurs indépendants ayant un niveau d'études correspondant aux exigences professionnelles - hommes, mesure la plus récente 2015-24</t>
+  </si>
+  <si>
+    <t>Pourcentage de travailleurs indépendants ayant un niveau d'éducation inférieur aux exigences professionnelles - hommes, mesure la plus récente 2015-24</t>
   </si>
   <si>
     <t>AGO</t>
   </si>
   <si>
-    <t>Angola*</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>BWA</t>
@@ -171,19 +171,19 @@
     <t>NAM</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>Namibie</t>
   </si>
   <si>
     <t>ZAF</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Afrique du Sud</t>
   </si>
   <si>
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambia</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -192,7 +192,10 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Southern Africa</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Afrique Australe</t>
   </si>
   <si>
     <t>BDI</t>
@@ -204,58 +207,58 @@
     <t>CMR</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Cameroun</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>Central African Republic</t>
+    <t>République centrafricaine</t>
   </si>
   <si>
     <t>TCD</t>
   </si>
   <si>
-    <t>Chad*</t>
+    <t>Tchad</t>
   </si>
   <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Congo Republic*</t>
+    <t>République du Congo</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
   </si>
   <si>
-    <t>Equatorial Guinea*</t>
+    <t>Guinée équatoriale</t>
   </si>
   <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>Gabon*</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>Central Africa</t>
+    <t>Sao Tomé-et-Principe</t>
+  </si>
+  <si>
+    <t>Afrique Centrale</t>
   </si>
   <si>
     <t>COM</t>
   </si>
   <si>
-    <t>Comoros</t>
+    <t>Comores</t>
   </si>
   <si>
     <t>DJI</t>
@@ -267,13 +270,13 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>Eritrea</t>
+    <t>Érythrée</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>Ethiopia</t>
+    <t>Éthiopie</t>
   </si>
   <si>
     <t>KEN</t>
@@ -291,7 +294,7 @@
     <t>MUS</t>
   </si>
   <si>
-    <t>Mauritius</t>
+    <t>Maurice</t>
   </si>
   <si>
     <t>RWA</t>
@@ -309,79 +312,79 @@
     <t>SOM</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Somalie</t>
   </si>
   <si>
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
   </si>
   <si>
-    <t>Sudan</t>
+    <t>Soudan</t>
   </si>
   <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>East Africa</t>
+    <t>Ouganda</t>
+  </si>
+  <si>
+    <t>Afrique de l'Est</t>
   </si>
   <si>
     <t>DZA</t>
   </si>
   <si>
-    <t>Algeria*</t>
+    <t>Algérie</t>
   </si>
   <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>Egypt</t>
+    <t>Égypte</t>
   </si>
   <si>
     <t>LBY</t>
   </si>
   <si>
-    <t>Libya*</t>
+    <t>Libye</t>
   </si>
   <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>Mauritania*</t>
+    <t>Mauritanie</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>Maroc</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>North Africa</t>
+    <t>Tunisie</t>
+  </si>
+  <si>
+    <t>Afrique du Nord</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>Benin</t>
+    <t>Bénin</t>
   </si>
   <si>
     <t>BFA</t>
@@ -393,7 +396,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde*</t>
+    <t>Cabo Verde</t>
   </si>
   <si>
     <t>CIV</t>
@@ -405,7 +408,7 @@
     <t>GMB</t>
   </si>
   <si>
-    <t>Gambia</t>
+    <t>Gambie</t>
   </si>
   <si>
     <t>GHA</t>
@@ -417,13 +420,13 @@
     <t>GIN</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>Guinée</t>
   </si>
   <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Guinée-Bissau</t>
   </si>
   <si>
     <t>LBR</t>
@@ -453,7 +456,7 @@
     <t>SEN</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Sénégal</t>
   </si>
   <si>
     <t>SLE</t>
@@ -468,22 +471,22 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>West Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>World outside Africa</t>
-  </si>
-  <si>
-    <t>Latin America and Caribbean</t>
-  </si>
-  <si>
-    <t>Asia (no high inc.)</t>
-  </si>
-  <si>
-    <t>World</t>
+    <t>Afrique de l'Ouest</t>
+  </si>
+  <si>
+    <t>Afrique</t>
+  </si>
+  <si>
+    <t>Reste du monde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amérique latine et Caraîbes </t>
+  </si>
+  <si>
+    <t>Asie (pays à revenu élevé exclus)</t>
+  </si>
+  <si>
+    <t>Monde</t>
   </si>
   <si>
     <t>COMESA</t>
@@ -492,19 +495,19 @@
     <t>CEN-SAD</t>
   </si>
   <si>
-    <t>EAC</t>
-  </si>
-  <si>
-    <t>ECCAS</t>
-  </si>
-  <si>
-    <t>ECOWAS</t>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>CEEAC</t>
+  </si>
+  <si>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
   </si>
   <si>
-    <t>SADC</t>
+    <t>CDAA</t>
   </si>
   <si>
     <t>UMA</t>
@@ -522,105 +525,110 @@
     <t>EU27</t>
   </si>
   <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>Africa, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Low income countries</t>
-  </si>
-  <si>
-    <t>ROW, Low income countries</t>
-  </si>
-  <si>
-    <t>Africa, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>Africa, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>High income countries</t>
-  </si>
-  <si>
-    <t>Africa, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>ROW, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>Africa, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>ROW, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>Africa, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>ROW, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>Africa, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>ROW, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
-  </si>
-  <si>
-    <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
-  </si>
-  <si>
-    <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
-  </si>
-  <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Source: International Labour Organization - ILOSTAT (retrieved 09/09/2025).</t>
-  </si>
-  <si>
-    <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
-  </si>
-  <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>OCDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrique, pays riches en ressources </t>
+  </si>
+  <si>
+    <t>RDM, pays riches en ressources</t>
+  </si>
+  <si>
+    <t>Afrique (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>RDM (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>Afrique, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>RDM, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>Pays à revenu élevé</t>
+  </si>
+  <si>
+    <t>Afrique, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>RDM, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>Afrique, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
+  </si>
+  <si>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+  </si>
+  <si>
+    <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
+  </si>
+  <si>
+    <t>RDM = "Reste du monde" ; ALC = "Pays d'Amérique latine et des Caraïbes"</t>
+  </si>
+  <si>
+    <t>CEN-SAD = « Communauté des États sahélo-sahariens » ; COMESA = « Marché commun de l’Afrique orientale et australe » ; EAC = « Communauté d’Afrique de l’Est » ; ECCAS = « Communauté économique des États de l’Afrique centrale » ; ECOWAS = « Communauté économique des États de l’Afrique de l’Ouest » ; IGAD = « Autorité intergouvernementale pour le développement » ; SADC = « Communauté de développement de l’Afrique australe » ; UMA = « Union du Maghreb arabe » ; PALOP = « Pays africains de langue officielle portugaise » ; ASEAN = « Association des nations de l’Asie du Sud-Est » ; MERCOSUR = « Marché commun du Sud ».
+EU27 = « Union européenne (27 membres) ». OECD = « Organisation de coopération et de développement économiques ».</t>
+  </si>
+  <si>
+    <t>Source : Organisation internationale du travail – ILOSTAT (consulté le 09/09/2025).</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des indicateurs, leurs descriptions et détails pour plus d’informations sur les indicateurs présentés dans ce tableau.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des pays et des regroupements de pays utilisés pour agréger les indicateurs et voir quels pays appartiennent à chaque regroupement.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour télécharger toutes les données de l’Annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques depuis 2000 (dans un format de fichier compressé).</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour visiter le site web où vous trouverez le rapport sur la dynamique du développement en Afrique, ainsi que des liens pour explorer ces données plus en détail et consulter les valeurs historiques de ces indicateurs.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste complète des sources utilisées dans l'annexe statistique.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,16 +760,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -988,7 +986,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1216,8 +1214,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1500,19 +1497,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F0E8E5-F270-45A8-AFB8-5F5B77AB560F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8C3B8D-955F-4B35-A6AF-375420026896}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC113"/>
+  <dimension ref="A1:AC115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="29" width="15.54296875" style="80" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="79" customWidth="1"/>
+    <col min="4" max="29" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1547,7 +1545,7 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
     </row>
-    <row r="2" spans="1:29" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="95" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2527,9 +2525,11 @@
       </c>
     </row>
     <row r="13" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="26"/>
+      <c r="A13" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="B13" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="28">
         <v>17.618352999999999</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>40</v>
@@ -2704,10 +2704,10 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>40</v>
@@ -2793,10 +2793,10 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>40</v>
@@ -2882,10 +2882,10 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" s="32">
         <v>1.7980719999999999</v>
@@ -2971,10 +2971,10 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>40</v>
@@ -3060,10 +3060,10 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>40</v>
@@ -3149,10 +3149,10 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>40</v>
@@ -3238,10 +3238,10 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>40</v>
@@ -3327,10 +3327,10 @@
     </row>
     <row r="22" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" s="36">
         <v>4.2363220000000004</v>
@@ -3415,9 +3415,11 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="26"/>
+      <c r="A23" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="B23" s="27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="28">
         <v>3.0171969999999999</v>
@@ -3503,10 +3505,10 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" s="40">
         <v>9.5153529999999993</v>
@@ -3592,10 +3594,10 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" s="21">
         <v>7.415241</v>
@@ -3681,10 +3683,10 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>40</v>
@@ -3770,10 +3772,10 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" s="21">
         <v>6.0200639999999996</v>
@@ -3859,10 +3861,10 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="21">
         <v>23.538354000000002</v>
@@ -3948,10 +3950,10 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="21">
         <v>23.411932</v>
@@ -4037,10 +4039,10 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C30" s="21">
         <v>16.674800000000001</v>
@@ -4126,10 +4128,10 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" s="21">
         <v>10.051716000000001</v>
@@ -4215,10 +4217,10 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C32" s="21">
         <v>11.907185999999999</v>
@@ -4304,10 +4306,10 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>40</v>
@@ -4393,10 +4395,10 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C34" s="32" t="s">
         <v>40</v>
@@ -4482,10 +4484,10 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C35" s="21">
         <v>8.531682</v>
@@ -4571,10 +4573,10 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C36" s="21">
         <v>4.6467470000000004</v>
@@ -4660,10 +4662,10 @@
     </row>
     <row r="37" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C37" s="23">
         <v>6.3728879999999997</v>
@@ -4748,9 +4750,11 @@
       </c>
     </row>
     <row r="38" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="26"/>
+      <c r="A38" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="B38" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C38" s="28">
         <v>11.644178999999999</v>
@@ -4836,10 +4840,10 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C39" s="44" t="s">
         <v>40</v>
@@ -4925,10 +4929,10 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C40" s="21">
         <v>9.9287650000000003</v>
@@ -5014,10 +5018,10 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C41" s="32" t="s">
         <v>40</v>
@@ -5103,10 +5107,10 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C42" s="32" t="s">
         <v>40</v>
@@ -5192,10 +5196,10 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>40</v>
@@ -5281,10 +5285,10 @@
     </row>
     <row r="44" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C44" s="36">
         <v>14.143990000000001</v>
@@ -5369,9 +5373,11 @@
       </c>
     </row>
     <row r="45" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="26"/>
+      <c r="A45" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="B45" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C45" s="28">
         <v>12.036377</v>
@@ -5457,10 +5463,10 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C46" s="40">
         <v>2.9390969999999998</v>
@@ -5546,10 +5552,10 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C47" s="21">
         <v>1.3683700000000001</v>
@@ -5635,10 +5641,10 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C48" s="32">
         <v>18.26173</v>
@@ -5724,10 +5730,10 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C49" s="21">
         <v>4.9109489999999996</v>
@@ -5813,10 +5819,10 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C50" s="21">
         <v>7.6238020000000004</v>
@@ -5902,10 +5908,10 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C51" s="15">
         <v>6.6871419999999997</v>
@@ -5991,10 +5997,10 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C52" s="21">
         <v>12.269731</v>
@@ -6080,10 +6086,10 @@
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C53" s="21">
         <v>9.4843030000000006</v>
@@ -6169,10 +6175,10 @@
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C54" s="21">
         <v>6.7450700000000001</v>
@@ -6258,10 +6264,10 @@
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C55" s="21">
         <v>2.2886579999999999</v>
@@ -6347,10 +6353,10 @@
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C56" s="21">
         <v>0.83689999999999998</v>
@@ -6436,10 +6442,10 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C57" s="21">
         <v>6.5082909999999998</v>
@@ -6525,10 +6531,10 @@
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C58" s="21">
         <v>4.7185259999999998</v>
@@ -6614,10 +6620,10 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C59" s="21">
         <v>2.6351390000000001</v>
@@ -6703,10 +6709,10 @@
     </row>
     <row r="60" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C60" s="23">
         <v>5.2334880000000004</v>
@@ -6791,9 +6797,11 @@
       </c>
     </row>
     <row r="61" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="26"/>
+      <c r="A61" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="B61" s="27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C61" s="28">
         <v>6.1674129999999998</v>
@@ -6878,9 +6886,11 @@
       </c>
     </row>
     <row r="62" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="48"/>
+      <c r="A62" s="48" t="s">
+        <v>51</v>
+      </c>
       <c r="B62" s="49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C62" s="50">
         <v>10.494089000000001</v>
@@ -6965,9 +6975,11 @@
       </c>
     </row>
     <row r="63" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="48"/>
+      <c r="A63" s="48" t="s">
+        <v>51</v>
+      </c>
       <c r="B63" s="49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C63" s="50">
         <v>18.056602000000002</v>
@@ -7052,9 +7064,11 @@
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A64" s="53"/>
+      <c r="A64" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B64" s="54" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C64" s="55">
         <v>17.690435999999998</v>
@@ -7139,9 +7153,11 @@
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A65" s="53"/>
+      <c r="A65" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B65" s="58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C65" s="59">
         <v>14.917678</v>
@@ -7226,9 +7242,11 @@
       </c>
     </row>
     <row r="66" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="53"/>
+      <c r="A66" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B66" s="62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C66" s="63">
         <v>15.979574</v>
@@ -7313,9 +7331,11 @@
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A67" s="53"/>
+      <c r="A67" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B67" s="58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C67" s="59">
         <v>13.865053</v>
@@ -7400,9 +7420,11 @@
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A68" s="53"/>
+      <c r="A68" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B68" s="58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C68" s="59">
         <v>6.2546049999999997</v>
@@ -7487,9 +7509,11 @@
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A69" s="53"/>
+      <c r="A69" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B69" s="58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C69" s="59">
         <v>11.152426</v>
@@ -7574,9 +7598,11 @@
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A70" s="53"/>
+      <c r="A70" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B70" s="58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C70" s="59">
         <v>4.8099889999999998</v>
@@ -7661,9 +7687,11 @@
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A71" s="53"/>
+      <c r="A71" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B71" s="58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C71" s="59">
         <v>6.1674129999999998</v>
@@ -7748,9 +7776,11 @@
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A72" s="53"/>
+      <c r="A72" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B72" s="58" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C72" s="59">
         <v>10.375646</v>
@@ -7835,9 +7865,11 @@
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A73" s="53"/>
+      <c r="A73" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B73" s="58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C73" s="59">
         <v>16.051514000000001</v>
@@ -7922,9 +7954,11 @@
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A74" s="53"/>
+      <c r="A74" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B74" s="58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C74" s="59">
         <v>14.143990000000001</v>
@@ -8009,9 +8043,11 @@
       </c>
     </row>
     <row r="75" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="53"/>
+      <c r="A75" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B75" s="58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C75" s="66">
         <v>7.3420459999999999</v>
@@ -8096,9 +8132,11 @@
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A76" s="53"/>
+      <c r="A76" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B76" s="69" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C76" s="70">
         <v>20.405674999999999</v>
@@ -8183,9 +8221,11 @@
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A77" s="53"/>
+      <c r="A77" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B77" s="58" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C77" s="59">
         <v>17.539411999999999</v>
@@ -8270,9 +8310,11 @@
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A78" s="53"/>
+      <c r="A78" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B78" s="58" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C78" s="59">
         <v>20.565701000000001</v>
@@ -8357,9 +8399,11 @@
       </c>
     </row>
     <row r="79" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="53"/>
+      <c r="A79" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B79" s="62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C79" s="63">
         <v>21.008579999999998</v>
@@ -8444,9 +8488,11 @@
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A80" s="53"/>
+      <c r="A80" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B80" s="69" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C80" s="70">
         <v>7.7378830000000001</v>
@@ -8531,9 +8577,11 @@
       </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A81" s="53"/>
+      <c r="A81" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B81" s="58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C81" s="59">
         <v>15.198532</v>
@@ -8618,9 +8666,11 @@
       </c>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A82" s="53"/>
+      <c r="A82" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B82" s="58" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C82" s="59">
         <v>10.723773</v>
@@ -8705,9 +8755,11 @@
       </c>
     </row>
     <row r="83" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="53"/>
+      <c r="A83" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B83" s="62" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C83" s="63">
         <v>18.363921000000001</v>
@@ -8792,9 +8844,11 @@
       </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A84" s="53"/>
+      <c r="A84" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B84" s="69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C84" s="70">
         <v>6.2825749999999996</v>
@@ -8879,9 +8933,11 @@
       </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A85" s="53"/>
+      <c r="A85" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B85" s="73" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C85" s="59">
         <v>4.1783929999999998</v>
@@ -8966,9 +9022,11 @@
       </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A86" s="53"/>
+      <c r="A86" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B86" s="58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C86" s="59">
         <v>10.807943</v>
@@ -9053,9 +9111,11 @@
       </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A87" s="53"/>
+      <c r="A87" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B87" s="58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C87" s="59">
         <v>15.147754000000001</v>
@@ -9140,9 +9200,11 @@
       </c>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A88" s="53"/>
+      <c r="A88" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B88" s="58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C88" s="59">
         <v>24.50882</v>
@@ -9227,9 +9289,11 @@
       </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A89" s="53"/>
+      <c r="A89" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B89" s="58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C89" s="59">
         <v>17.169779999999999</v>
@@ -9314,9 +9378,11 @@
       </c>
     </row>
     <row r="90" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="53"/>
+      <c r="A90" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B90" s="62" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C90" s="63">
         <v>20.043464</v>
@@ -9401,9 +9467,11 @@
       </c>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A91" s="53"/>
+      <c r="A91" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B91" s="69" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C91" s="70">
         <v>6.6535710000000003</v>
@@ -9488,9 +9556,11 @@
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A92" s="53"/>
+      <c r="A92" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B92" s="58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C92" s="59">
         <v>12.200286</v>
@@ -9575,9 +9645,11 @@
       </c>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A93" s="53"/>
+      <c r="A93" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B93" s="58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C93" s="59">
         <v>11.679949000000001</v>
@@ -9662,9 +9734,11 @@
       </c>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A94" s="53"/>
+      <c r="A94" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B94" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C94" s="59">
         <v>15.400046</v>
@@ -9749,9 +9823,11 @@
       </c>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A95" s="53"/>
+      <c r="A95" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B95" s="58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C95" s="59">
         <v>11.275117</v>
@@ -9836,9 +9912,11 @@
       </c>
     </row>
     <row r="96" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="53"/>
+      <c r="A96" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B96" s="62" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C96" s="63">
         <v>15.581367999999999</v>
@@ -9923,9 +10001,11 @@
       </c>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A97" s="53"/>
+      <c r="A97" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B97" s="69" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C97" s="70">
         <v>8.7076320000000003</v>
@@ -10010,9 +10090,11 @@
       </c>
     </row>
     <row r="98" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="53"/>
+      <c r="A98" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="B98" s="62" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C98" s="63">
         <v>15.239851</v>
@@ -10129,7 +10211,7 @@
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C100" s="76"/>
       <c r="D100" s="76"/>
@@ -10161,7 +10243,7 @@
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C101" s="76"/>
       <c r="D101" s="76"/>
@@ -10193,7 +10275,7 @@
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C102" s="76"/>
       <c r="D102" s="76"/>
@@ -10225,7 +10307,7 @@
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C103" s="76"/>
       <c r="D103" s="76"/>
@@ -10257,7 +10339,7 @@
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C104" s="76"/>
       <c r="D104" s="76"/>
@@ -10288,6 +10370,9 @@
       <c r="AC104" s="76"/>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="C105" s="76"/>
       <c r="D105" s="76"/>
       <c r="E105" s="76"/>
@@ -10317,6 +10402,9 @@
       <c r="AC105" s="76"/>
     </row>
     <row r="106" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="B106" s="77"/>
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
@@ -10346,10 +10434,8 @@
       <c r="AB106" s="76"/>
       <c r="AC106" s="76"/>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B107" s="78" t="s">
-        <v>186</v>
-      </c>
+    <row r="107" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="77"/>
       <c r="C107" s="76"/>
       <c r="D107" s="76"/>
       <c r="E107" s="76"/>
@@ -10379,7 +10465,9 @@
       <c r="AC107" s="76"/>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="80" t="s">
+        <v>191</v>
+      </c>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
       <c r="E108" s="76"/>
@@ -10409,9 +10497,7 @@
       <c r="AC108" s="76"/>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B109" s="81" t="s">
-        <v>188</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="76"/>
       <c r="D109" s="76"/>
       <c r="E109" s="76"/>
@@ -10441,8 +10527,8 @@
       <c r="AC109" s="76"/>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B110" s="81" t="s">
-        <v>189</v>
+      <c r="B110" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="C110" s="76"/>
       <c r="D110" s="76"/>
@@ -10473,8 +10559,8 @@
       <c r="AC110" s="76"/>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B111" s="81" t="s">
-        <v>190</v>
+      <c r="B111" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="C111" s="76"/>
       <c r="D111" s="76"/>
@@ -10505,8 +10591,8 @@
       <c r="AC111" s="76"/>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>187</v>
+      <c r="B112" s="80" t="s">
+        <v>192</v>
       </c>
       <c r="C112" s="76"/>
       <c r="D112" s="76"/>
@@ -10537,7 +10623,9 @@
       <c r="AC112" s="76"/>
     </row>
     <row r="113" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B113" s="79"/>
+      <c r="B113" s="80" t="s">
+        <v>190</v>
+      </c>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
       <c r="E113" s="76"/>
@@ -10566,17 +10654,76 @@
       <c r="AB113" s="76"/>
       <c r="AC113" s="76"/>
     </row>
+    <row r="114" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B114" s="78"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+      <c r="J114" s="76"/>
+      <c r="K114" s="76"/>
+      <c r="L114" s="76"/>
+      <c r="M114" s="76"/>
+      <c r="N114" s="76"/>
+      <c r="O114" s="76"/>
+      <c r="P114" s="76"/>
+      <c r="Q114" s="76"/>
+      <c r="R114" s="76"/>
+      <c r="S114" s="76"/>
+      <c r="T114" s="76"/>
+      <c r="U114" s="76"/>
+      <c r="V114" s="76"/>
+      <c r="W114" s="76"/>
+      <c r="X114" s="76"/>
+      <c r="Y114" s="76"/>
+      <c r="Z114" s="76"/>
+      <c r="AA114" s="76"/>
+      <c r="AB114" s="76"/>
+      <c r="AC114" s="76"/>
+    </row>
+    <row r="115" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B115" s="78"/>
+      <c r="C115" s="76"/>
+      <c r="D115" s="76"/>
+      <c r="E115" s="76"/>
+      <c r="F115" s="76"/>
+      <c r="G115" s="76"/>
+      <c r="H115" s="76"/>
+      <c r="I115" s="76"/>
+      <c r="J115" s="76"/>
+      <c r="K115" s="76"/>
+      <c r="L115" s="76"/>
+      <c r="M115" s="76"/>
+      <c r="N115" s="76"/>
+      <c r="O115" s="76"/>
+      <c r="P115" s="76"/>
+      <c r="Q115" s="76"/>
+      <c r="R115" s="76"/>
+      <c r="S115" s="76"/>
+      <c r="T115" s="76"/>
+      <c r="U115" s="76"/>
+      <c r="V115" s="76"/>
+      <c r="W115" s="76"/>
+      <c r="X115" s="76"/>
+      <c r="Y115" s="76"/>
+      <c r="Z115" s="76"/>
+      <c r="AA115" s="76"/>
+      <c r="AB115" s="76"/>
+      <c r="AC115" s="76"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{8BB24F8C-3BBF-4E1B-AB93-09C70020D6FF}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{BCA1A17E-1110-4881-B450-4063CD39768A}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{0154A810-EAFC-4752-BCF8-36625D248F86}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{AFF713F7-92A0-4A0D-B166-D87EDE940664}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{7FC70C1B-9E7F-4763-9C5E-D2F830B7CC8C}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{6D77B581-C2BA-4195-B661-FB59E9FA9787}"/>
+    <hyperlink ref="B110" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{975A271F-E5BA-4A27-BAC5-FAA5BD8F95B7}"/>
+    <hyperlink ref="B111" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{CF79E4D0-DCF8-433E-BDD9-ED5E8C62C1C7}"/>
+    <hyperlink ref="B113" r:id="rId3" xr:uid="{B11FC16C-4046-4CBB-AB7F-E60496E9A7B7}"/>
+    <hyperlink ref="B108" r:id="rId4" xr:uid="{1777A12A-6C8E-40A3-9197-DB2B96146604}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{F5BC0EC9-AD25-4EE4-BB39-187A8885F50F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
